--- a/AfDD_2022_Annex_Table_Tab17.xlsx
+++ b/AfDD_2022_Annex_Table_Tab17.xlsx
@@ -23,10 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="174">
-  <si>
-    <t>Back to Contents</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="173">
   <si>
     <t>Table 17: Growth decomposition by expenditure</t>
   </si>
@@ -1388,11 +1385,9 @@
   <sheetData>
     <row r="1" spans="1:9" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
         <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -1403,39 +1398,39 @@
     </row>
     <row r="2" spans="1:9" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="G2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="I2" s="10" t="s">
         <v>9</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>11</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>12</v>
       </c>
       <c r="C3" s="13">
         <v>85.9063399565634</v>
@@ -1461,10 +1456,10 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="15" t="s">
         <v>13</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>14</v>
       </c>
       <c r="C4" s="16">
         <v>87.387771935665697</v>
@@ -1490,10 +1485,10 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="19" t="s">
         <v>15</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>16</v>
       </c>
       <c r="C5" s="20">
         <v>167.31744686528799</v>
@@ -1519,10 +1514,10 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="19" t="s">
         <v>17</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>18</v>
       </c>
       <c r="C6" s="20">
         <v>240.25321780313399</v>
@@ -1548,10 +1543,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="19" t="s">
         <v>19</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>20</v>
       </c>
       <c r="C7" s="20">
         <v>47.437972026470398</v>
@@ -1577,10 +1572,10 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="19" t="s">
         <v>21</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>22</v>
       </c>
       <c r="C8" s="20">
         <v>72.363571854676707</v>
@@ -1606,10 +1601,10 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="19" t="s">
         <v>23</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>24</v>
       </c>
       <c r="C9" s="20">
         <v>246.679919949717</v>
@@ -1635,10 +1630,10 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="19" t="s">
         <v>25</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>26</v>
       </c>
       <c r="C10" s="20">
         <v>64.728021092037693</v>
@@ -1664,10 +1659,10 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="19" t="s">
         <v>27</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>28</v>
       </c>
       <c r="C11" s="16">
         <v>126.497870787374</v>
@@ -1693,39 +1688,39 @@
     </row>
     <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="C12" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="23" t="s">
-        <v>31</v>
-      </c>
       <c r="D12" s="23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G12" s="23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H12" s="23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I12" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="26" t="s">
         <v>32</v>
-      </c>
-      <c r="B13" s="26" t="s">
-        <v>33</v>
       </c>
       <c r="C13" s="27">
         <v>77.340652454226401</v>
@@ -1751,10 +1746,10 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="19" t="s">
         <v>34</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>35</v>
       </c>
       <c r="C14" s="20">
         <v>429.505191605753</v>
@@ -1780,10 +1775,10 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="19" t="s">
         <v>36</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>37</v>
       </c>
       <c r="C15" s="20">
         <v>59.667298134454597</v>
@@ -1809,10 +1804,10 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="19" t="s">
         <v>38</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>39</v>
       </c>
       <c r="C16" s="20">
         <v>82.517312345315105</v>
@@ -1838,10 +1833,10 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="29" t="s">
         <v>40</v>
-      </c>
-      <c r="B17" s="29" t="s">
-        <v>41</v>
       </c>
       <c r="C17" s="13">
         <v>-39.914199809296001</v>
@@ -1867,10 +1862,10 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="29" t="s">
         <v>42</v>
-      </c>
-      <c r="B18" s="29" t="s">
-        <v>43</v>
       </c>
       <c r="C18" s="13">
         <v>-192.16874348012001</v>
@@ -1896,10 +1891,10 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="19" t="s">
         <v>44</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>45</v>
       </c>
       <c r="C19" s="16">
         <v>73.906824191705596</v>
@@ -1925,10 +1920,10 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="29" t="s">
         <v>46</v>
-      </c>
-      <c r="B20" s="29" t="s">
-        <v>47</v>
       </c>
       <c r="C20" s="13">
         <v>62.929022076162703</v>
@@ -1954,10 +1949,10 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="29" t="s">
         <v>48</v>
-      </c>
-      <c r="B21" s="29" t="s">
-        <v>49</v>
       </c>
       <c r="C21" s="13">
         <v>12.9770353189662</v>
@@ -1983,10 +1978,10 @@
     </row>
     <row r="22" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="19" t="s">
         <v>50</v>
-      </c>
-      <c r="B22" s="19" t="s">
-        <v>51</v>
       </c>
       <c r="C22" s="20">
         <v>61.3024255244963</v>
@@ -2012,10 +2007,10 @@
     </row>
     <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C23" s="27">
         <v>45.134479002914198</v>
@@ -2041,10 +2036,10 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="19" t="s">
         <v>53</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>54</v>
       </c>
       <c r="C24" s="20">
         <v>40.549347681497203</v>
@@ -2070,10 +2065,10 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="19" t="s">
         <v>55</v>
-      </c>
-      <c r="B25" s="19" t="s">
-        <v>56</v>
       </c>
       <c r="C25" s="20">
         <v>54.523775882891101</v>
@@ -2099,10 +2094,10 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="19" t="s">
         <v>57</v>
-      </c>
-      <c r="B26" s="19" t="s">
-        <v>58</v>
       </c>
       <c r="C26" s="20">
         <v>-247.63781522139001</v>
@@ -2128,10 +2123,10 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="19" t="s">
         <v>59</v>
-      </c>
-      <c r="B27" s="19" t="s">
-        <v>60</v>
       </c>
       <c r="C27" s="20">
         <v>59.172950836937297</v>
@@ -2157,10 +2152,10 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" s="19" t="s">
         <v>61</v>
-      </c>
-      <c r="B28" s="19" t="s">
-        <v>62</v>
       </c>
       <c r="C28" s="20">
         <v>91.554732320262602</v>
@@ -2186,10 +2181,10 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="19" t="s">
         <v>63</v>
-      </c>
-      <c r="B29" s="19" t="s">
-        <v>64</v>
       </c>
       <c r="C29" s="20">
         <v>73.585162207333099</v>
@@ -2215,10 +2210,10 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" s="19" t="s">
         <v>65</v>
-      </c>
-      <c r="B30" s="19" t="s">
-        <v>66</v>
       </c>
       <c r="C30" s="20">
         <v>98.013750080848595</v>
@@ -2244,10 +2239,10 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" s="19" t="s">
         <v>67</v>
-      </c>
-      <c r="B31" s="19" t="s">
-        <v>68</v>
       </c>
       <c r="C31" s="20">
         <v>8.6019689450079095</v>
@@ -2273,10 +2268,10 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" s="19" t="s">
         <v>69</v>
-      </c>
-      <c r="B32" s="19" t="s">
-        <v>70</v>
       </c>
       <c r="C32" s="20">
         <v>-1.9444517587656001</v>
@@ -2302,39 +2297,39 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B33" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="B33" s="19" t="s">
-        <v>72</v>
-      </c>
       <c r="C33" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D33" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E33" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F33" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G33" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H33" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I33" s="21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B34" s="15" t="s">
         <v>73</v>
-      </c>
-      <c r="B34" s="15" t="s">
-        <v>74</v>
       </c>
       <c r="C34" s="16">
         <v>130.25558777341899</v>
@@ -2360,10 +2355,10 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B35" s="19" t="s">
         <v>75</v>
-      </c>
-      <c r="B35" s="19" t="s">
-        <v>76</v>
       </c>
       <c r="C35" s="20">
         <v>95.431171477787601</v>
@@ -2372,10 +2367,10 @@
         <v>3.5132738512494099</v>
       </c>
       <c r="E35" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F35" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G35" s="20">
         <v>15.797951409427601</v>
@@ -2389,10 +2384,10 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="B36" s="19" t="s">
         <v>77</v>
-      </c>
-      <c r="B36" s="19" t="s">
-        <v>78</v>
       </c>
       <c r="C36" s="20">
         <v>39.542010816764197</v>
@@ -2418,10 +2413,10 @@
     </row>
     <row r="37" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="B37" s="19" t="s">
         <v>79</v>
-      </c>
-      <c r="B37" s="19" t="s">
-        <v>80</v>
       </c>
       <c r="C37" s="20">
         <v>52.3323239213139</v>
@@ -2447,10 +2442,10 @@
     </row>
     <row r="38" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C38" s="27">
         <v>68.067494660897907</v>
@@ -2476,10 +2471,10 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B39" s="30" t="s">
         <v>82</v>
-      </c>
-      <c r="B39" s="30" t="s">
-        <v>83</v>
       </c>
       <c r="C39" s="13">
         <v>-8186.0145410741998</v>
@@ -2505,10 +2500,10 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="B40" s="19" t="s">
         <v>84</v>
-      </c>
-      <c r="B40" s="19" t="s">
-        <v>85</v>
       </c>
       <c r="C40" s="20">
         <v>69.954302730767495</v>
@@ -2534,28 +2529,28 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B41" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="B41" s="30" t="s">
-        <v>87</v>
-      </c>
       <c r="C41" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G41" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H41" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I41" s="14">
         <v>56.8624480816882</v>
@@ -2563,10 +2558,10 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B42" s="30" t="s">
         <v>88</v>
-      </c>
-      <c r="B42" s="30" t="s">
-        <v>89</v>
       </c>
       <c r="C42" s="13">
         <v>26.082378590709901</v>
@@ -2575,10 +2570,10 @@
         <v>5.6684527324674301</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F42" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G42" s="13">
         <v>86.596362122858906</v>
@@ -2592,10 +2587,10 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="B43" s="19" t="s">
         <v>90</v>
-      </c>
-      <c r="B43" s="19" t="s">
-        <v>91</v>
       </c>
       <c r="C43" s="20">
         <v>4.9756549276702602</v>
@@ -2621,10 +2616,10 @@
     </row>
     <row r="44" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="B44" s="19" t="s">
         <v>92</v>
-      </c>
-      <c r="B44" s="19" t="s">
-        <v>93</v>
       </c>
       <c r="C44" s="20">
         <v>71.403250587679196</v>
@@ -2650,10 +2645,10 @@
     </row>
     <row r="45" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B45" s="26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C45" s="27">
         <v>-1882.2820705761001</v>
@@ -2679,10 +2674,10 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="B46" s="19" t="s">
         <v>95</v>
-      </c>
-      <c r="B46" s="19" t="s">
-        <v>96</v>
       </c>
       <c r="C46" s="20">
         <v>56.099317388326298</v>
@@ -2708,10 +2703,10 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="B47" s="19" t="s">
         <v>97</v>
-      </c>
-      <c r="B47" s="19" t="s">
-        <v>98</v>
       </c>
       <c r="C47" s="20">
         <v>123.516579752003</v>
@@ -2737,10 +2732,10 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="B48" s="19" t="s">
         <v>99</v>
-      </c>
-      <c r="B48" s="19" t="s">
-        <v>100</v>
       </c>
       <c r="C48" s="20">
         <v>3.10222589275683</v>
@@ -2766,10 +2761,10 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="B49" s="19" t="s">
         <v>101</v>
-      </c>
-      <c r="B49" s="19" t="s">
-        <v>102</v>
       </c>
       <c r="C49" s="20">
         <v>41.101791671253302</v>
@@ -2795,10 +2790,10 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="B50" s="19" t="s">
         <v>103</v>
-      </c>
-      <c r="B50" s="19" t="s">
-        <v>104</v>
       </c>
       <c r="C50" s="20">
         <v>92.480040533429801</v>
@@ -2824,10 +2819,10 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B51" s="15" t="s">
         <v>105</v>
-      </c>
-      <c r="B51" s="15" t="s">
-        <v>106</v>
       </c>
       <c r="C51" s="16">
         <v>48.287949693892401</v>
@@ -2853,10 +2848,10 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="B52" s="19" t="s">
         <v>107</v>
-      </c>
-      <c r="B52" s="19" t="s">
-        <v>108</v>
       </c>
       <c r="C52" s="20">
         <v>111.926066151284</v>
@@ -2882,10 +2877,10 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="B53" s="19" t="s">
         <v>109</v>
-      </c>
-      <c r="B53" s="19" t="s">
-        <v>110</v>
       </c>
       <c r="C53" s="20">
         <v>523.29626534719296</v>
@@ -2911,22 +2906,22 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="B54" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="B54" s="19" t="s">
-        <v>112</v>
-      </c>
       <c r="C54" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D54" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E54" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F54" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G54" s="20">
         <v>-8.4992549635696992</v>
@@ -2935,15 +2930,15 @@
         <v>55.549331830462897</v>
       </c>
       <c r="I54" s="21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="B55" s="19" t="s">
         <v>113</v>
-      </c>
-      <c r="B55" s="19" t="s">
-        <v>114</v>
       </c>
       <c r="C55" s="20">
         <v>78.199832924301603</v>
@@ -2969,10 +2964,10 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="B56" s="19" t="s">
         <v>115</v>
-      </c>
-      <c r="B56" s="19" t="s">
-        <v>116</v>
       </c>
       <c r="C56" s="20">
         <v>41.236862076188103</v>
@@ -2998,10 +2993,10 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="B57" s="30" t="s">
         <v>117</v>
-      </c>
-      <c r="B57" s="30" t="s">
-        <v>118</v>
       </c>
       <c r="C57" s="13">
         <v>90.006911933949894</v>
@@ -3027,10 +3022,10 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="B58" s="19" t="s">
         <v>119</v>
-      </c>
-      <c r="B58" s="19" t="s">
-        <v>120</v>
       </c>
       <c r="C58" s="20">
         <v>102.263191934378</v>
@@ -3056,10 +3051,10 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="B59" s="19" t="s">
         <v>121</v>
-      </c>
-      <c r="B59" s="19" t="s">
-        <v>122</v>
       </c>
       <c r="C59" s="20">
         <v>75.405191409487003</v>
@@ -3085,10 +3080,10 @@
     </row>
     <row r="60" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="B60" s="15" t="s">
         <v>123</v>
-      </c>
-      <c r="B60" s="15" t="s">
-        <v>124</v>
       </c>
       <c r="C60" s="16">
         <v>55.688884691264803</v>
@@ -3114,10 +3109,10 @@
     </row>
     <row r="61" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B61" s="26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C61" s="27">
         <v>81.826368705142897</v>
@@ -3143,10 +3138,10 @@
     </row>
     <row r="62" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B62" s="32" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C62" s="33">
         <v>-578.75331045500002</v>
@@ -3172,10 +3167,10 @@
     </row>
     <row r="63" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B63" s="32" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C63" s="33">
         <v>67.3890028631223</v>
@@ -3201,10 +3196,10 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" s="35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B64" s="36" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C64" s="37">
         <v>76.1115328639399</v>
@@ -3230,10 +3225,10 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" s="35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B65" s="39" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C65" s="40">
         <v>57.2888952540753</v>
@@ -3259,10 +3254,10 @@
     </row>
     <row r="66" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B66" s="42" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C66" s="43">
         <v>35.3021603487758</v>
@@ -3288,10 +3283,10 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" s="35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B67" s="39" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C67" s="40">
         <v>73.927597809956694</v>
@@ -3317,10 +3312,10 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" s="35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B68" s="39" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C68" s="40">
         <v>70.011162283473098</v>
@@ -3346,10 +3341,10 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" s="35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B69" s="39" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C69" s="40">
         <v>71.156479048591194</v>
@@ -3375,10 +3370,10 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" s="35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B70" s="39" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C70" s="40">
         <v>59.065879511320198</v>
@@ -3404,10 +3399,10 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" s="35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B71" s="39" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C71" s="40">
         <v>81.826368705142897</v>
@@ -3433,10 +3428,10 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" s="35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B72" s="39" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C72" s="40">
         <v>74.654136138723402</v>
@@ -3462,10 +3457,10 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" s="35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B73" s="39" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C73" s="40">
         <v>73.463564380904501</v>
@@ -3491,10 +3486,10 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" s="35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B74" s="39" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C74" s="40">
         <v>-4375.6572259785999</v>
@@ -3520,10 +3515,10 @@
     </row>
     <row r="75" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B75" s="42" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C75" s="43">
         <v>87.165591413094702</v>
@@ -3549,10 +3544,10 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" s="35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B76" s="39" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C76" s="40">
         <v>81.510517473877599</v>
@@ -3578,10 +3573,10 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" s="35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B77" s="39" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C77" s="40">
         <v>73.7114308009197</v>
@@ -3607,10 +3602,10 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" s="35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B78" s="39" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C78" s="40">
         <v>46.161176504787903</v>
@@ -3636,10 +3631,10 @@
     </row>
     <row r="79" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B79" s="42" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C79" s="43">
         <v>63.655356504458602</v>
@@ -3665,10 +3660,10 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" s="35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B80" s="39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C80" s="40">
         <v>-2114.0907716352999</v>
@@ -3694,10 +3689,10 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" s="35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B81" s="39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C81" s="40">
         <v>119.060126169675</v>
@@ -3723,10 +3718,10 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" s="35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B82" s="39" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C82" s="40">
         <v>66.985966701455297</v>
@@ -3752,10 +3747,10 @@
     </row>
     <row r="83" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B83" s="42" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C83" s="43">
         <v>62.921646687099397</v>
@@ -3781,10 +3776,10 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" s="35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B84" s="39" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C84" s="40">
         <v>72.434286757205996</v>
@@ -3810,10 +3805,10 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" s="35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B85" s="39" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C85" s="40">
         <v>180.249162927029</v>
@@ -3839,10 +3834,10 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" s="35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B86" s="39" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C86" s="40">
         <v>-873.62740481704998</v>
@@ -3868,10 +3863,10 @@
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" s="35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B87" s="39" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C87" s="40">
         <v>74.080534981682305</v>
@@ -3897,10 +3892,10 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" s="35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B88" s="39" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C88" s="40">
         <v>69.520064174820803</v>
@@ -3926,10 +3921,10 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" s="35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B89" s="39" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C89" s="40">
         <v>53.814326890737597</v>
@@ -3955,10 +3950,10 @@
     </row>
     <row r="90" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B90" s="42" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C90" s="43">
         <v>74.666561227563804</v>
@@ -3984,10 +3979,10 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91" s="35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B91" s="39" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C91" s="40">
         <v>73.552241259054099</v>
@@ -4013,10 +4008,10 @@
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92" s="35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B92" s="39" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C92" s="40">
         <v>76.760919047358001</v>
@@ -4042,10 +4037,10 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93" s="35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B93" s="39" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C93" s="40">
         <v>119.656388382706</v>
@@ -4071,10 +4066,10 @@
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94" s="35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B94" s="39" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C94" s="40">
         <v>171.014961301639</v>
@@ -4100,10 +4095,10 @@
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95" s="35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B95" s="39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C95" s="40">
         <v>73.038445676449399</v>
@@ -4129,10 +4124,10 @@
     </row>
     <row r="96" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B96" s="42" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C96" s="43">
         <v>90.057252744956401</v>
@@ -4158,10 +4153,10 @@
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97" s="35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B97" s="39" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C97" s="40">
         <v>77.733069940404604</v>
@@ -4187,10 +4182,10 @@
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98" s="35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B98" s="39" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C98" s="40">
         <v>64.935077133018297</v>
@@ -4216,10 +4211,10 @@
     </row>
     <row r="99" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B99" s="42" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C99" s="43">
         <v>43.781243508522401</v>
@@ -4256,27 +4251,27 @@
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101" s="48" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A102" s="48" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A103" s="48" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A104" s="48" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B107" s="51" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
@@ -4284,27 +4279,27 @@
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B109" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B111" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B112" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -4314,7 +4309,6 @@
     <hyperlink ref="B111" r:id="rId3"/>
     <hyperlink ref="B112" r:id="rId4"/>
     <hyperlink ref="B113" r:id="rId5"/>
-    <hyperlink ref="B1" location="Contents!A1" display="Back to Contents"/>
     <hyperlink ref="B107" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AfDD_2022_Annex_Table_Tab17.xlsx
+++ b/AfDD_2022_Annex_Table_Tab17.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6590"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11990"/>
   </bookViews>
   <sheets>
     <sheet name="Tab17" sheetId="1" r:id="rId1"/>
@@ -523,6 +523,9 @@
     <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";PALOP = "Países Africanos de Língua Oficial Portuguesa";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Común del Sur".EU27 = "European Union (27 members)".OECD = "Organisation for Economic Co-operation and Development".</t>
   </si>
   <si>
+    <t>Disclaimer: This document, as well as any data and map included herein, are without prejudice to the status of or sovereignty over any territory, to the delimitation of international frontiers and boundaries and to the name of any territory, city or area.</t>
+  </si>
+  <si>
     <t>Source: Author's calculations based on IMF World Economic Outlook Database October 2021.</t>
   </si>
   <si>
@@ -535,88 +538,10 @@
     <t>To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators.</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">To download all data for the </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Africa's Development Dynamics</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> statistical annex in compressed csv format, including historic data back to 2000, click here.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">To download all data for the </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Africa's Development Dynamics</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> statistical annex in uncompressed Excel format, including historic data back to 2000, click here to download the first of two data files.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">To download all data for the </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Africa's Development Dynamics</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> statistical annex in uncompressed Excel format, including historic data back to 2000, click here to download the second of two data files.</t>
-    </r>
+    <t>To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here.</t>
+  </si>
+  <si>
+    <t>To download the entire dataset as a flat file in compressed CSV form, click here.</t>
   </si>
 </sst>
 </file>
@@ -628,7 +553,7 @@
     <numFmt numFmtId="164" formatCode="0_);\(0\)"/>
     <numFmt numFmtId="165" formatCode="#,##0.0_);\(#,##0.0\)"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -744,15 +669,6 @@
       <i/>
       <u/>
       <sz val="12"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <u/>
-      <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1372,7 +1288,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I113"/>
+  <dimension ref="A1:I114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -4269,18 +4185,18 @@
         <v>166</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B107" s="51" t="s">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A105" s="48" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B108" s="51"/>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B109" s="2" t="s">
+      <c r="B108" s="51" t="s">
         <v>168</v>
       </c>
+    </row>
+    <row r="109" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B109" s="51"/>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
@@ -4293,25 +4209,27 @@
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B112" s="2" t="s">
-        <v>171</v>
-      </c>
+      <c r="B112" s="2"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B114" s="2" t="s">
         <v>172</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1"/>
-    <hyperlink ref="B110" r:id="rId2" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators"/>
-    <hyperlink ref="B111" r:id="rId3"/>
-    <hyperlink ref="B112" r:id="rId4"/>
-    <hyperlink ref="B113" r:id="rId5"/>
-    <hyperlink ref="B107" r:id="rId6"/>
+    <hyperlink ref="B110" r:id="rId1"/>
+    <hyperlink ref="B111" r:id="rId2" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators"/>
+    <hyperlink ref="B114" r:id="rId3"/>
+    <hyperlink ref="B113" r:id="rId4"/>
+    <hyperlink ref="B108" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="69" fitToHeight="0" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" scale="95" fitToHeight="0" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/AfDD_2022_Annex_Table_Tab17.xlsx
+++ b/AfDD_2022_Annex_Table_Tab17.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10990"/>
   </bookViews>
   <sheets>
     <sheet name="Tab17" sheetId="1" r:id="rId1"/>

--- a/AfDD_2022_Annex_Table_Tab17.xlsx
+++ b/AfDD_2022_Annex_Table_Tab17.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab17" sheetId="1" r:id="rId1"/>

--- a/AfDD_2022_Annex_Table_Tab17.xlsx
+++ b/AfDD_2022_Annex_Table_Tab17.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab17" sheetId="1" r:id="rId1"/>

--- a/AfDD_2022_Annex_Table_Tab17.xlsx
+++ b/AfDD_2022_Annex_Table_Tab17.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="9240"/>
   </bookViews>
   <sheets>
     <sheet name="Tab17" sheetId="1" r:id="rId1"/>
@@ -523,7 +523,7 @@
     <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";PALOP = "Países Africanos de Língua Oficial Portuguesa";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Común del Sur".EU27 = "European Union (27 members)".OECD = "Organisation for Economic Co-operation and Development".</t>
   </si>
   <si>
-    <t>Disclaimer: This document, as well as any data and map included herein, are without prejudice to the status of or sovereignty over any territory, to the delimitation of international frontiers and boundaries and to the name of any territory, city or area.</t>
+    <t>Disclaimer: This table and any data included herein is without prejudice to the status of or sovereignty over any territory, to the delimitation of international frontiers and boundaries and to the name of any territory, city or area.</t>
   </si>
   <si>
     <t>Source: Author's calculations based on IMF World Economic Outlook Database October 2021.</t>
@@ -3930,10 +3930,10 @@
         <v>155</v>
       </c>
       <c r="C92" s="40">
-        <v>76.760919047358001</v>
+        <v>76.768915669000805</v>
       </c>
       <c r="D92" s="40">
-        <v>12.769677275062</v>
+        <v>12.751171563349899</v>
       </c>
       <c r="E92" s="40">
         <v>28.339955030061599</v>
@@ -3942,13 +3942,13 @@
         <v>5.6491529064848498</v>
       </c>
       <c r="G92" s="40">
-        <v>22.594855934507301</v>
+        <v>22.719498363479499</v>
       </c>
       <c r="H92" s="40">
-        <v>18.478938590537901</v>
+        <v>18.5495027374903</v>
       </c>
       <c r="I92" s="41">
-        <v>4.1158543757299499</v>
+        <v>4.1699326226786901</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.35">

--- a/AfDD_2022_Annex_Table_Tab17.xlsx
+++ b/AfDD_2022_Annex_Table_Tab17.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10400"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab17" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="178">
   <si>
     <t>Table 17: Growth decomposition by expenditure</t>
   </si>
@@ -76,19 +76,19 @@
     <t>Angola*</t>
   </si>
   <si>
+    <t>BWA</t>
+  </si>
+  <si>
+    <t>Botswana</t>
+  </si>
+  <si>
+    <t>SWZ</t>
+  </si>
+  <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
     <t>..</t>
-  </si>
-  <si>
-    <t>BWA</t>
-  </si>
-  <si>
-    <t>Botswana</t>
-  </si>
-  <si>
-    <t>SWZ</t>
-  </si>
-  <si>
-    <t>Eswatini</t>
   </si>
   <si>
     <t>LSO</t>
@@ -1383,23 +1383,23 @@
       <c r="B3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>17</v>
+      <c r="C3" s="13">
+        <v>63.948350205771703</v>
+      </c>
+      <c r="D3" s="13">
+        <v>20.810885067446101</v>
+      </c>
+      <c r="E3" s="13">
+        <v>0</v>
+      </c>
+      <c r="F3" s="13">
+        <v>15.240764726782199</v>
+      </c>
+      <c r="G3" s="13">
+        <v>26.384886509727199</v>
+      </c>
+      <c r="H3" s="14">
+        <v>41.625651236509398</v>
       </c>
       <c r="I3" s="13">
         <v>72.191498853816597</v>
@@ -1422,28 +1422,28 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="17" t="s">
-        <v>17</v>
+      <c r="C4" s="16">
+        <v>77.603733069653998</v>
+      </c>
+      <c r="D4" s="16">
+        <v>29.499247295218201</v>
+      </c>
+      <c r="E4" s="16">
+        <v>2.0151496066257999</v>
+      </c>
+      <c r="F4" s="16">
+        <v>-9.118129971498</v>
+      </c>
+      <c r="G4" s="16">
+        <v>47.041020936073203</v>
+      </c>
+      <c r="H4" s="17">
+        <v>37.922890964575302</v>
       </c>
       <c r="I4" s="16">
         <v>67.279116437016398</v>
@@ -1466,46 +1466,46 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="21" t="s">
-        <v>17</v>
+      <c r="C5" s="20">
+        <v>95.021855418681994</v>
+      </c>
+      <c r="D5" s="20">
+        <v>15.0717613517657</v>
+      </c>
+      <c r="E5" s="20">
+        <v>0</v>
+      </c>
+      <c r="F5" s="20">
+        <v>-10.093616770448</v>
+      </c>
+      <c r="G5" s="20">
+        <v>57.819527997200602</v>
+      </c>
+      <c r="H5" s="21">
+        <v>47.725911226752999</v>
       </c>
       <c r="I5" s="20" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J5" s="20" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K5" s="20" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="L5" s="20" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="M5" s="20" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="N5" s="21" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
@@ -1515,23 +1515,23 @@
       <c r="B6" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="21" t="s">
-        <v>17</v>
+      <c r="C6" s="20">
+        <v>126.375529754699</v>
+      </c>
+      <c r="D6" s="20">
+        <v>26.410744146510002</v>
+      </c>
+      <c r="E6" s="20">
+        <v>-3.7048437860095</v>
+      </c>
+      <c r="F6" s="20">
+        <v>-49.081430115198998</v>
+      </c>
+      <c r="G6" s="20">
+        <v>97.181705493720202</v>
+      </c>
+      <c r="H6" s="21">
+        <v>48.100275378520998</v>
       </c>
       <c r="I6" s="20">
         <v>82.5025112188939</v>
@@ -1559,23 +1559,23 @@
       <c r="B7" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="21" t="s">
-        <v>17</v>
+      <c r="C7" s="20">
+        <v>111.794610654869</v>
+      </c>
+      <c r="D7" s="20">
+        <v>7.6470114132513602</v>
+      </c>
+      <c r="E7" s="20">
+        <v>0.21101929875239001</v>
+      </c>
+      <c r="F7" s="20">
+        <v>-19.652641366872999</v>
+      </c>
+      <c r="G7" s="20">
+        <v>38.1801895620209</v>
+      </c>
+      <c r="H7" s="21">
+        <v>18.527548195148299</v>
       </c>
       <c r="I7" s="20">
         <v>136.104269071624</v>
@@ -1603,23 +1603,23 @@
       <c r="B8" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="21" t="s">
-        <v>17</v>
+      <c r="C8" s="20">
+        <v>87.403869227868498</v>
+      </c>
+      <c r="D8" s="20">
+        <v>56.213608471039002</v>
+      </c>
+      <c r="E8" s="20">
+        <v>3.8447114700385701</v>
+      </c>
+      <c r="F8" s="20">
+        <v>-47.462189168945997</v>
+      </c>
+      <c r="G8" s="20">
+        <v>79.730548159660003</v>
+      </c>
+      <c r="H8" s="21">
+        <v>32.268358990713899</v>
       </c>
       <c r="I8" s="20">
         <v>80.638527356069901</v>
@@ -1647,23 +1647,23 @@
       <c r="B9" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="21" t="s">
-        <v>17</v>
+      <c r="C9" s="20">
+        <v>94.626828864255202</v>
+      </c>
+      <c r="D9" s="20">
+        <v>15.9333887052594</v>
+      </c>
+      <c r="E9" s="20">
+        <v>-0.78613451661720002</v>
+      </c>
+      <c r="F9" s="20">
+        <v>-9.7740830528973994</v>
+      </c>
+      <c r="G9" s="20">
+        <v>46.433218994887099</v>
+      </c>
+      <c r="H9" s="21">
+        <v>36.659135941989803</v>
       </c>
       <c r="I9" s="20">
         <v>106.894280359935</v>
@@ -1691,23 +1691,23 @@
       <c r="B10" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" s="21" t="s">
-        <v>17</v>
+      <c r="C10" s="20">
+        <v>83.440786962712394</v>
+      </c>
+      <c r="D10" s="20">
+        <v>15.350368071788299</v>
+      </c>
+      <c r="E10" s="20">
+        <v>0.67459937715217999</v>
+      </c>
+      <c r="F10" s="20">
+        <v>0.53424558834715996</v>
+      </c>
+      <c r="G10" s="20">
+        <v>26.8144664336508</v>
+      </c>
+      <c r="H10" s="21">
+        <v>27.348712021998001</v>
       </c>
       <c r="I10" s="20">
         <v>98.442557803620204</v>
@@ -1735,23 +1735,23 @@
       <c r="B11" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="17" t="s">
-        <v>17</v>
+      <c r="C11" s="16">
+        <v>60.256912748667702</v>
+      </c>
+      <c r="D11" s="16">
+        <v>35.756616717334701</v>
+      </c>
+      <c r="E11" s="16">
+        <v>3.5052902637364101</v>
+      </c>
+      <c r="F11" s="16">
+        <v>0.48118027026129001</v>
+      </c>
+      <c r="G11" s="16">
+        <v>34.155012331571903</v>
+      </c>
+      <c r="H11" s="17">
+        <v>34.636192601833201</v>
       </c>
       <c r="I11" s="16">
         <v>43.400921185619801</v>
@@ -1780,40 +1780,40 @@
         <v>35</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G12" s="23" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H12" s="24" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I12" s="23" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J12" s="23" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K12" s="23" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="L12" s="23" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="M12" s="23" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="N12" s="24" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1867,23 +1867,23 @@
       <c r="B14" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" s="21" t="s">
-        <v>17</v>
+      <c r="C14" s="20">
+        <v>104.501717382468</v>
+      </c>
+      <c r="D14" s="20">
+        <v>19.286479885416199</v>
+      </c>
+      <c r="E14" s="20">
+        <v>-2.0448794330000001E-15</v>
+      </c>
+      <c r="F14" s="20">
+        <v>-23.788197267884001</v>
+      </c>
+      <c r="G14" s="20">
+        <v>33.718900597396001</v>
+      </c>
+      <c r="H14" s="21">
+        <v>9.9307033295115801</v>
       </c>
       <c r="I14" s="20">
         <v>66.259330875995104</v>
@@ -1911,23 +1911,23 @@
       <c r="B15" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H15" s="21" t="s">
-        <v>17</v>
+      <c r="C15" s="20">
+        <v>84.743686257354796</v>
+      </c>
+      <c r="D15" s="20">
+        <v>19.088506793809</v>
+      </c>
+      <c r="E15" s="20">
+        <v>-0.1538612977594</v>
+      </c>
+      <c r="F15" s="20">
+        <v>-3.6783317534044002</v>
+      </c>
+      <c r="G15" s="20">
+        <v>23.528422500723</v>
+      </c>
+      <c r="H15" s="21">
+        <v>19.8500907473186</v>
       </c>
       <c r="I15" s="20">
         <v>85.305902182491906</v>
@@ -1955,23 +1955,23 @@
       <c r="B16" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H16" s="21" t="s">
-        <v>17</v>
+      <c r="C16" s="20">
+        <v>103.67057682484899</v>
+      </c>
+      <c r="D16" s="20">
+        <v>14.665883257403999</v>
+      </c>
+      <c r="E16" s="20">
+        <v>0</v>
+      </c>
+      <c r="F16" s="20">
+        <v>-18.336460082253002</v>
+      </c>
+      <c r="G16" s="20">
+        <v>34.085293079814598</v>
+      </c>
+      <c r="H16" s="21">
+        <v>15.7488329975615</v>
       </c>
       <c r="I16" s="20">
         <v>63.7229039589621</v>
@@ -1999,23 +1999,23 @@
       <c r="B17" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H17" s="14" t="s">
-        <v>17</v>
+      <c r="C17" s="13">
+        <v>85.896179932287097</v>
+      </c>
+      <c r="D17" s="13">
+        <v>23.2191005340486</v>
+      </c>
+      <c r="E17" s="13">
+        <v>0</v>
+      </c>
+      <c r="F17" s="13">
+        <v>-9.1152804663356992</v>
+      </c>
+      <c r="G17" s="13">
+        <v>44.469763048951499</v>
+      </c>
+      <c r="H17" s="14">
+        <v>35.354482582615702</v>
       </c>
       <c r="I17" s="13">
         <v>97.418965660706107</v>
@@ -2043,23 +2043,23 @@
       <c r="B18" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H18" s="14" t="s">
-        <v>17</v>
+      <c r="C18" s="13">
+        <v>63.523547851339004</v>
+      </c>
+      <c r="D18" s="13">
+        <v>25.553286852126401</v>
+      </c>
+      <c r="E18" s="13">
+        <v>-3.3360911686994998</v>
+      </c>
+      <c r="F18" s="13">
+        <v>14.259256465233999</v>
+      </c>
+      <c r="G18" s="13">
+        <v>54.138834220727503</v>
+      </c>
+      <c r="H18" s="14">
+        <v>68.398090685961407</v>
       </c>
       <c r="I18" s="13">
         <v>589.13295970313004</v>
@@ -2087,23 +2087,23 @@
       <c r="B19" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G19" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="H19" s="17" t="s">
-        <v>17</v>
+      <c r="C19" s="16">
+        <v>91.095487779112901</v>
+      </c>
+      <c r="D19" s="16">
+        <v>12.6258449401479</v>
+      </c>
+      <c r="E19" s="16">
+        <v>0</v>
+      </c>
+      <c r="F19" s="16">
+        <v>-3.7213327192607002</v>
+      </c>
+      <c r="G19" s="16">
+        <v>30.161214506676799</v>
+      </c>
+      <c r="H19" s="17">
+        <v>26.439881787416098</v>
       </c>
       <c r="I19" s="16">
         <v>84.197331673566595</v>
@@ -2131,23 +2131,23 @@
       <c r="B20" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H20" s="14" t="s">
-        <v>17</v>
+      <c r="C20" s="13">
+        <v>78.2518044495569</v>
+      </c>
+      <c r="D20" s="13">
+        <v>7.8212753998424498</v>
+      </c>
+      <c r="E20" s="13">
+        <v>-0.1106060085118</v>
+      </c>
+      <c r="F20" s="13">
+        <v>14.037526159112501</v>
+      </c>
+      <c r="G20" s="13">
+        <v>33.3955634483547</v>
+      </c>
+      <c r="H20" s="14">
+        <v>47.433089607467203</v>
       </c>
       <c r="I20" s="13">
         <v>-61.596328005045002</v>
@@ -2175,23 +2175,23 @@
       <c r="B21" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H21" s="14" t="s">
-        <v>17</v>
+      <c r="C21" s="13">
+        <v>60.009208421326797</v>
+      </c>
+      <c r="D21" s="13">
+        <v>32.005816761659197</v>
+      </c>
+      <c r="E21" s="13">
+        <v>0</v>
+      </c>
+      <c r="F21" s="13">
+        <v>7.9849748170139501</v>
+      </c>
+      <c r="G21" s="13">
+        <v>32.467948863683297</v>
+      </c>
+      <c r="H21" s="14">
+        <v>40.452923680697197</v>
       </c>
       <c r="I21" s="13">
         <v>73.577492861916994</v>
@@ -2219,23 +2219,23 @@
       <c r="B22" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E22" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F22" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G22" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H22" s="21" t="s">
-        <v>17</v>
+      <c r="C22" s="20">
+        <v>103.410046405367</v>
+      </c>
+      <c r="D22" s="20">
+        <v>18.576710172739901</v>
+      </c>
+      <c r="E22" s="20">
+        <v>0</v>
+      </c>
+      <c r="F22" s="20">
+        <v>-21.986756578106998</v>
+      </c>
+      <c r="G22" s="20">
+        <v>44.315191964394302</v>
+      </c>
+      <c r="H22" s="21">
+        <v>22.328435386287602</v>
       </c>
       <c r="I22" s="20">
         <v>99.682552424041106</v>
@@ -2307,23 +2307,23 @@
       <c r="B24" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F24" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G24" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H24" s="21" t="s">
-        <v>17</v>
+      <c r="C24" s="20">
+        <v>100.77498894942001</v>
+      </c>
+      <c r="D24" s="20">
+        <v>15.654376544439501</v>
+      </c>
+      <c r="E24" s="20">
+        <v>0.6982716209091</v>
+      </c>
+      <c r="F24" s="20">
+        <v>-17.127637114768</v>
+      </c>
+      <c r="G24" s="20">
+        <v>29.718597996157001</v>
+      </c>
+      <c r="H24" s="21">
+        <v>12.5909608813887</v>
       </c>
       <c r="I24" s="20">
         <v>99.815892212272601</v>
@@ -2351,23 +2351,23 @@
       <c r="B25" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="C25" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E25" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F25" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G25" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H25" s="21" t="s">
-        <v>17</v>
+      <c r="C25" s="20">
+        <v>60.6105933798815</v>
+      </c>
+      <c r="D25" s="20">
+        <v>27.754025638361998</v>
+      </c>
+      <c r="E25" s="20">
+        <v>0</v>
+      </c>
+      <c r="F25" s="20">
+        <v>11.6353809817565</v>
+      </c>
+      <c r="G25" s="20">
+        <v>143.593774180336</v>
+      </c>
+      <c r="H25" s="21">
+        <v>155.22915516209201</v>
       </c>
       <c r="I25" s="20">
         <v>54.463187695925299</v>
@@ -2395,23 +2395,23 @@
       <c r="B26" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E26" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F26" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G26" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H26" s="21" t="s">
-        <v>17</v>
+      <c r="C26" s="20">
+        <v>92.781038895845299</v>
+      </c>
+      <c r="D26" s="20">
+        <v>4.98025572990956</v>
+      </c>
+      <c r="E26" s="20">
+        <v>0</v>
+      </c>
+      <c r="F26" s="20">
+        <v>2.2387053742452099</v>
+      </c>
+      <c r="G26" s="20">
+        <v>29.294166004658301</v>
+      </c>
+      <c r="H26" s="21">
+        <v>31.532871378903501</v>
       </c>
       <c r="I26" s="20">
         <v>48.3055288106722</v>
@@ -2439,23 +2439,23 @@
       <c r="B27" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="C27" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D27" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E27" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F27" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G27" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H27" s="21" t="s">
-        <v>17</v>
+      <c r="C27" s="20">
+        <v>77.718922524429402</v>
+      </c>
+      <c r="D27" s="20">
+        <v>35.193145442116602</v>
+      </c>
+      <c r="E27" s="20">
+        <v>0</v>
+      </c>
+      <c r="F27" s="20">
+        <v>-12.912067966545999</v>
+      </c>
+      <c r="G27" s="20">
+        <v>20.833389935220801</v>
+      </c>
+      <c r="H27" s="21">
+        <v>7.9213219686747696</v>
       </c>
       <c r="I27" s="20">
         <v>61.211742023281097</v>
@@ -2483,23 +2483,23 @@
       <c r="B28" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="C28" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D28" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E28" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F28" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G28" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H28" s="21" t="s">
-        <v>17</v>
+      <c r="C28" s="20">
+        <v>89.408718120735998</v>
+      </c>
+      <c r="D28" s="20">
+        <v>19.0995929175626</v>
+      </c>
+      <c r="E28" s="20">
+        <v>0.37959939898715001</v>
+      </c>
+      <c r="F28" s="20">
+        <v>-8.8879104372857007</v>
+      </c>
+      <c r="G28" s="20">
+        <v>20.2959306669051</v>
+      </c>
+      <c r="H28" s="21">
+        <v>11.4080202296194</v>
       </c>
       <c r="I28" s="20">
         <v>88.178834744133297</v>
@@ -2527,23 +2527,23 @@
       <c r="B29" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="C29" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D29" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E29" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F29" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G29" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H29" s="21" t="s">
-        <v>17</v>
+      <c r="C29" s="20">
+        <v>86.0028361845376</v>
+      </c>
+      <c r="D29" s="20">
+        <v>18.313440162400699</v>
+      </c>
+      <c r="E29" s="20">
+        <v>1.4362442132077899</v>
+      </c>
+      <c r="F29" s="20">
+        <v>-5.7525205601460003</v>
+      </c>
+      <c r="G29" s="20">
+        <v>34.176921802945401</v>
+      </c>
+      <c r="H29" s="21">
+        <v>28.424401242799199</v>
       </c>
       <c r="I29" s="20">
         <v>90.648602648441795</v>
@@ -2571,23 +2571,23 @@
       <c r="B30" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="C30" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D30" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E30" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F30" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G30" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H30" s="21" t="s">
-        <v>17</v>
+      <c r="C30" s="20">
+        <v>95.197589785921707</v>
+      </c>
+      <c r="D30" s="20">
+        <v>20.478648738115499</v>
+      </c>
+      <c r="E30" s="20">
+        <v>0.18960741836405001</v>
+      </c>
+      <c r="F30" s="20">
+        <v>-15.865845942401</v>
+      </c>
+      <c r="G30" s="20">
+        <v>56.0249066628676</v>
+      </c>
+      <c r="H30" s="21">
+        <v>40.1590607204663</v>
       </c>
       <c r="I30" s="20">
         <v>117.136647047577</v>
@@ -2615,23 +2615,23 @@
       <c r="B31" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="C31" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D31" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E31" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F31" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G31" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H31" s="21" t="s">
-        <v>17</v>
+      <c r="C31" s="20">
+        <v>91.121846484165403</v>
+      </c>
+      <c r="D31" s="20">
+        <v>26.881374127750899</v>
+      </c>
+      <c r="E31" s="20">
+        <v>-3.6929683306494998</v>
+      </c>
+      <c r="F31" s="20">
+        <v>-14.310252281266999</v>
+      </c>
+      <c r="G31" s="20">
+        <v>36.1245303274289</v>
+      </c>
+      <c r="H31" s="21">
+        <v>21.814278046162102</v>
       </c>
       <c r="I31" s="20">
         <v>87.189995589627898</v>
@@ -2659,23 +2659,23 @@
       <c r="B32" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="C32" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D32" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E32" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F32" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G32" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H32" s="21" t="s">
-        <v>17</v>
+      <c r="C32" s="20">
+        <v>83.538228762246504</v>
+      </c>
+      <c r="D32" s="20">
+        <v>27.401649881234398</v>
+      </c>
+      <c r="E32" s="20">
+        <v>0</v>
+      </c>
+      <c r="F32" s="20">
+        <v>-10.939878643481</v>
+      </c>
+      <c r="G32" s="20">
+        <v>106.548121512452</v>
+      </c>
+      <c r="H32" s="21">
+        <v>95.608242868971502</v>
       </c>
       <c r="I32" s="20">
         <v>86.462742979434594</v>
@@ -2704,40 +2704,40 @@
         <v>76</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D33" s="20" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E33" s="20" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F33" s="20" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G33" s="20" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H33" s="21" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I33" s="20" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J33" s="20" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K33" s="20" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="L33" s="20" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="M33" s="20" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="N33" s="21" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.35">
@@ -2747,41 +2747,41 @@
       <c r="B34" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="C34" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D34" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F34" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G34" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="H34" s="17" t="s">
-        <v>17</v>
+      <c r="C34" s="16">
+        <v>100.82064436036799</v>
+      </c>
+      <c r="D34" s="16">
+        <v>16.0266184988945</v>
+      </c>
+      <c r="E34" s="16">
+        <v>0</v>
+      </c>
+      <c r="F34" s="16">
+        <v>-16.847262859261999</v>
+      </c>
+      <c r="G34" s="16">
+        <v>66.991054403242302</v>
+      </c>
+      <c r="H34" s="17">
+        <v>50.143791543979901</v>
       </c>
       <c r="I34" s="16" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J34" s="16" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K34" s="16" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="L34" s="16" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="M34" s="16" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="N34" s="17" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.35">
@@ -2792,40 +2792,40 @@
         <v>80</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D35" s="20" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E35" s="20" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F35" s="20" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G35" s="20" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H35" s="21" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I35" s="20" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J35" s="20" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K35" s="20" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="L35" s="20" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="M35" s="20" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="N35" s="21" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.35">
@@ -2835,23 +2835,23 @@
       <c r="B36" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C36" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D36" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E36" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F36" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G36" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H36" s="21" t="s">
-        <v>17</v>
+      <c r="C36" s="20">
+        <v>63.143661684746</v>
+      </c>
+      <c r="D36" s="20">
+        <v>40.514441538709498</v>
+      </c>
+      <c r="E36" s="20">
+        <v>-2.7599176245388999</v>
+      </c>
+      <c r="F36" s="20">
+        <v>-0.89818559891670002</v>
+      </c>
+      <c r="G36" s="20">
+        <v>16.1389229593624</v>
+      </c>
+      <c r="H36" s="21">
+        <v>15.240737360445699</v>
       </c>
       <c r="I36" s="20">
         <v>49.480144135838898</v>
@@ -2879,23 +2879,23 @@
       <c r="B37" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="C37" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D37" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E37" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F37" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G37" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H37" s="21" t="s">
-        <v>17</v>
+      <c r="C37" s="20">
+        <v>81.341196899199304</v>
+      </c>
+      <c r="D37" s="20">
+        <v>25.792738344197002</v>
+      </c>
+      <c r="E37" s="20">
+        <v>0.62340404927197002</v>
+      </c>
+      <c r="F37" s="20">
+        <v>-7.7573392926681999</v>
+      </c>
+      <c r="G37" s="20">
+        <v>21.240061684439699</v>
+      </c>
+      <c r="H37" s="21">
+        <v>13.4827223917715</v>
       </c>
       <c r="I37" s="20">
         <v>75.061888669707102</v>
@@ -2967,23 +2967,23 @@
       <c r="B39" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="C39" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E39" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="F39" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G39" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H39" s="14" t="s">
-        <v>17</v>
+      <c r="C39" s="13">
+        <v>63.1926953749145</v>
+      </c>
+      <c r="D39" s="13">
+        <v>38.694360274717098</v>
+      </c>
+      <c r="E39" s="13">
+        <v>7.2967403063397702</v>
+      </c>
+      <c r="F39" s="13">
+        <v>-9.1837959559713003</v>
+      </c>
+      <c r="G39" s="13">
+        <v>31.719194874503099</v>
+      </c>
+      <c r="H39" s="14">
+        <v>22.535398918531801</v>
       </c>
       <c r="I39" s="13">
         <v>94.287565279991497</v>
@@ -3011,23 +3011,23 @@
       <c r="B40" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="C40" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D40" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E40" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F40" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G40" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H40" s="21" t="s">
-        <v>17</v>
+      <c r="C40" s="20">
+        <v>90.272636741135997</v>
+      </c>
+      <c r="D40" s="20">
+        <v>17.831307190770598</v>
+      </c>
+      <c r="E40" s="20">
+        <v>0.16159034967399999</v>
+      </c>
+      <c r="F40" s="20">
+        <v>-8.2655342815805994</v>
+      </c>
+      <c r="G40" s="20">
+        <v>25.766144942785701</v>
+      </c>
+      <c r="H40" s="21">
+        <v>17.500610661205201</v>
       </c>
       <c r="I40" s="20">
         <v>101.936129010592</v>
@@ -3056,40 +3056,40 @@
         <v>91</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G41" s="13" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H41" s="14" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I41" s="13" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J41" s="13" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K41" s="13" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="L41" s="13" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="M41" s="13" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="N41" s="14" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.35">
@@ -3099,23 +3099,23 @@
       <c r="B42" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="C42" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D42" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E42" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="F42" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G42" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H42" s="14" t="s">
-        <v>17</v>
+      <c r="C42" s="13">
+        <v>66.769029198444201</v>
+      </c>
+      <c r="D42" s="13">
+        <v>45.352944284289897</v>
+      </c>
+      <c r="E42" s="13">
+        <v>-1.3057560646941999</v>
+      </c>
+      <c r="F42" s="13">
+        <v>-10.816217418040001</v>
+      </c>
+      <c r="G42" s="13">
+        <v>50.000965504542698</v>
+      </c>
+      <c r="H42" s="14">
+        <v>39.1847480865028</v>
       </c>
       <c r="I42" s="13">
         <v>39.2887904791599</v>
@@ -3143,23 +3143,23 @@
       <c r="B43" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="C43" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D43" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E43" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F43" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G43" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H43" s="21" t="s">
-        <v>17</v>
+      <c r="C43" s="20">
+        <v>76.443399843512196</v>
+      </c>
+      <c r="D43" s="20">
+        <v>27.643853345662698</v>
+      </c>
+      <c r="E43" s="20">
+        <v>4.2983815143224504</v>
+      </c>
+      <c r="F43" s="20">
+        <v>-8.3856347034972991</v>
+      </c>
+      <c r="G43" s="20">
+        <v>45.130611742131698</v>
+      </c>
+      <c r="H43" s="21">
+        <v>36.744977038634403</v>
       </c>
       <c r="I43" s="20">
         <v>75.881779657961999</v>
@@ -3187,23 +3187,23 @@
       <c r="B44" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="C44" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D44" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E44" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F44" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G44" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H44" s="21" t="s">
-        <v>17</v>
+      <c r="C44" s="20">
+        <v>90.845052519681602</v>
+      </c>
+      <c r="D44" s="20">
+        <v>19.4966466480927</v>
+      </c>
+      <c r="E44" s="20">
+        <v>0.12347884152232</v>
+      </c>
+      <c r="F44" s="20">
+        <v>-10.465178009297</v>
+      </c>
+      <c r="G44" s="20">
+        <v>56.562046459644399</v>
+      </c>
+      <c r="H44" s="21">
+        <v>46.096868450347799</v>
       </c>
       <c r="I44" s="20">
         <v>157.64305294248101</v>
@@ -3275,23 +3275,23 @@
       <c r="B46" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="C46" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D46" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E46" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F46" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G46" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H46" s="21" t="s">
-        <v>17</v>
+      <c r="C46" s="20">
+        <v>79.385013557361802</v>
+      </c>
+      <c r="D46" s="20">
+        <v>25.173255631160899</v>
+      </c>
+      <c r="E46" s="20">
+        <v>0.45654494806040002</v>
+      </c>
+      <c r="F46" s="20">
+        <v>-5.0148141365830998</v>
+      </c>
+      <c r="G46" s="20">
+        <v>29.9262623396789</v>
+      </c>
+      <c r="H46" s="21">
+        <v>24.911448203095901</v>
       </c>
       <c r="I46" s="20">
         <v>55.952453296047203</v>
@@ -3319,23 +3319,23 @@
       <c r="B47" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="C47" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D47" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E47" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F47" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G47" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H47" s="21" t="s">
-        <v>17</v>
+      <c r="C47" s="20">
+        <v>76.814876572497596</v>
+      </c>
+      <c r="D47" s="20">
+        <v>25.464803307247202</v>
+      </c>
+      <c r="E47" s="20">
+        <v>1.1940791061537499</v>
+      </c>
+      <c r="F47" s="20">
+        <v>-3.4737589858984999</v>
+      </c>
+      <c r="G47" s="20">
+        <v>31.412755202827</v>
+      </c>
+      <c r="H47" s="21">
+        <v>27.938996216928398</v>
       </c>
       <c r="I47" s="20">
         <v>60.864644465480197</v>
@@ -3363,23 +3363,23 @@
       <c r="B48" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="C48" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D48" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E48" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F48" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G48" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H48" s="21" t="s">
-        <v>17</v>
+      <c r="C48" s="20">
+        <v>77.056757661164696</v>
+      </c>
+      <c r="D48" s="20">
+        <v>37.551813898373098</v>
+      </c>
+      <c r="E48" s="20">
+        <v>0</v>
+      </c>
+      <c r="F48" s="20">
+        <v>-14.608571559537999</v>
+      </c>
+      <c r="G48" s="20">
+        <v>65.257863566711507</v>
+      </c>
+      <c r="H48" s="21">
+        <v>50.649292007173699</v>
       </c>
       <c r="I48" s="20">
         <v>46.905366195274603</v>
@@ -3407,23 +3407,23 @@
       <c r="B49" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="C49" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D49" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E49" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F49" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G49" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H49" s="21" t="s">
-        <v>17</v>
+      <c r="C49" s="20">
+        <v>78.789714875054401</v>
+      </c>
+      <c r="D49" s="20">
+        <v>21.107484647846899</v>
+      </c>
+      <c r="E49" s="20">
+        <v>-1.0488401895549</v>
+      </c>
+      <c r="F49" s="20">
+        <v>1.1516406666535901</v>
+      </c>
+      <c r="G49" s="20">
+        <v>22.624636894257801</v>
+      </c>
+      <c r="H49" s="21">
+        <v>23.776277560911399</v>
       </c>
       <c r="I49" s="20">
         <v>76.629850101973204</v>
@@ -3451,23 +3451,23 @@
       <c r="B50" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="C50" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D50" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E50" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F50" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G50" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H50" s="21" t="s">
-        <v>17</v>
+      <c r="C50" s="20">
+        <v>99.112208541487206</v>
+      </c>
+      <c r="D50" s="20">
+        <v>19.509312281710798</v>
+      </c>
+      <c r="E50" s="20">
+        <v>0</v>
+      </c>
+      <c r="F50" s="20">
+        <v>-18.621520823198001</v>
+      </c>
+      <c r="G50" s="20">
+        <v>39.055705821441599</v>
+      </c>
+      <c r="H50" s="21">
+        <v>20.434184998243602</v>
       </c>
       <c r="I50" s="20">
         <v>104.340453983036</v>
@@ -3495,23 +3495,23 @@
       <c r="B51" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="C51" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D51" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E51" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F51" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G51" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="H51" s="17" t="s">
-        <v>17</v>
+      <c r="C51" s="16">
+        <v>82.525137017695599</v>
+      </c>
+      <c r="D51" s="16">
+        <v>18.038207117785401</v>
+      </c>
+      <c r="E51" s="16">
+        <v>1.3622603211966799</v>
+      </c>
+      <c r="F51" s="16">
+        <v>-1.9256044566777</v>
+      </c>
+      <c r="G51" s="16">
+        <v>39.375232206406302</v>
+      </c>
+      <c r="H51" s="17">
+        <v>37.449627749728599</v>
       </c>
       <c r="I51" s="16">
         <v>94.555411823296893</v>
@@ -3539,23 +3539,23 @@
       <c r="B52" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="C52" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D52" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E52" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F52" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G52" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H52" s="21" t="s">
-        <v>17</v>
+      <c r="C52" s="20">
+        <v>90.044380345732506</v>
+      </c>
+      <c r="D52" s="20">
+        <v>17.2532228821267</v>
+      </c>
+      <c r="E52" s="20">
+        <v>0</v>
+      </c>
+      <c r="F52" s="20">
+        <v>-7.2976032278591996</v>
+      </c>
+      <c r="G52" s="20">
+        <v>37.198024280363299</v>
+      </c>
+      <c r="H52" s="21">
+        <v>29.9004210525041</v>
       </c>
       <c r="I52" s="20">
         <v>82.842955407264597</v>
@@ -3583,23 +3583,23 @@
       <c r="B53" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="C53" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D53" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E53" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F53" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G53" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H53" s="21" t="s">
-        <v>17</v>
+      <c r="C53" s="20">
+        <v>99.060204452282406</v>
+      </c>
+      <c r="D53" s="20">
+        <v>14.8299449873297</v>
+      </c>
+      <c r="E53" s="20">
+        <v>-0.63982593522450004</v>
+      </c>
+      <c r="F53" s="20">
+        <v>-13.250323504388</v>
+      </c>
+      <c r="G53" s="20">
+        <v>35.173854957886299</v>
+      </c>
+      <c r="H53" s="21">
+        <v>21.923531453498601</v>
       </c>
       <c r="I53" s="20">
         <v>90.897677477463603</v>
@@ -3628,40 +3628,40 @@
         <v>116</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D54" s="20" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E54" s="20" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F54" s="20" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G54" s="20" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H54" s="21" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I54" s="20" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J54" s="20" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K54" s="20" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="L54" s="20" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="M54" s="20" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="N54" s="21" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.35">
@@ -3671,23 +3671,23 @@
       <c r="B55" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="C55" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D55" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E55" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F55" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G55" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H55" s="21" t="s">
-        <v>17</v>
+      <c r="C55" s="20">
+        <v>89.716206273808993</v>
+      </c>
+      <c r="D55" s="20">
+        <v>20.042502634057598</v>
+      </c>
+      <c r="E55" s="20">
+        <v>2.4891218425389599</v>
+      </c>
+      <c r="F55" s="20">
+        <v>-12.247830750406001</v>
+      </c>
+      <c r="G55" s="20">
+        <v>37.953055528531998</v>
+      </c>
+      <c r="H55" s="21">
+        <v>25.7052247781265</v>
       </c>
       <c r="I55" s="20">
         <v>94.695240070183502</v>
@@ -3715,23 +3715,23 @@
       <c r="B56" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="C56" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D56" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E56" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F56" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G56" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H56" s="21" t="s">
-        <v>17</v>
+      <c r="C56" s="20">
+        <v>85.343897851245799</v>
+      </c>
+      <c r="D56" s="20">
+        <v>29.953921127399202</v>
+      </c>
+      <c r="E56" s="20">
+        <v>0.29081476822718</v>
+      </c>
+      <c r="F56" s="20">
+        <v>-15.588633746872</v>
+      </c>
+      <c r="G56" s="20">
+        <v>26.307042888995099</v>
+      </c>
+      <c r="H56" s="21">
+        <v>10.7184091421229</v>
       </c>
       <c r="I56" s="20">
         <v>78.337049038253198</v>
@@ -3759,23 +3759,23 @@
       <c r="B57" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="C57" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D57" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E57" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="F57" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G57" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H57" s="14" t="s">
-        <v>17</v>
+      <c r="C57" s="13">
+        <v>81.478107502945704</v>
+      </c>
+      <c r="D57" s="13">
+        <v>24.6252346217676</v>
+      </c>
+      <c r="E57" s="13">
+        <v>0.79065284073227005</v>
+      </c>
+      <c r="F57" s="13">
+        <v>-6.8939949654454997</v>
+      </c>
+      <c r="G57" s="13">
+        <v>22.498460875630599</v>
+      </c>
+      <c r="H57" s="14">
+        <v>15.6044659101851</v>
       </c>
       <c r="I57" s="13">
         <v>90.2021733643424</v>
@@ -3803,23 +3803,23 @@
       <c r="B58" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="C58" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D58" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E58" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F58" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G58" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H58" s="21" t="s">
-        <v>17</v>
+      <c r="C58" s="20">
+        <v>82.284473426373907</v>
+      </c>
+      <c r="D58" s="20">
+        <v>29.842621156008999</v>
+      </c>
+      <c r="E58" s="20">
+        <v>2.1150553106025201</v>
+      </c>
+      <c r="F58" s="20">
+        <v>-14.242149892984999</v>
+      </c>
+      <c r="G58" s="20">
+        <v>39.169576503536902</v>
+      </c>
+      <c r="H58" s="21">
+        <v>24.9274266105515</v>
       </c>
       <c r="I58" s="20">
         <v>64.397260309599801</v>
@@ -3847,23 +3847,23 @@
       <c r="B59" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="C59" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D59" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E59" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F59" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G59" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H59" s="21" t="s">
-        <v>17</v>
+      <c r="C59" s="20">
+        <v>102.43012174715599</v>
+      </c>
+      <c r="D59" s="20">
+        <v>16.177848980615501</v>
+      </c>
+      <c r="E59" s="20">
+        <v>0</v>
+      </c>
+      <c r="F59" s="20">
+        <v>-18.607970727771999</v>
+      </c>
+      <c r="G59" s="20">
+        <v>44.627422019532297</v>
+      </c>
+      <c r="H59" s="21">
+        <v>26.019451291760401</v>
       </c>
       <c r="I59" s="20">
         <v>96.862064286070904</v>
@@ -3891,23 +3891,23 @@
       <c r="B60" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="C60" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D60" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E60" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F60" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G60" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="H60" s="17" t="s">
-        <v>17</v>
+      <c r="C60" s="16">
+        <v>88.356261523188195</v>
+      </c>
+      <c r="D60" s="16">
+        <v>20.538457901952398</v>
+      </c>
+      <c r="E60" s="16">
+        <v>0</v>
+      </c>
+      <c r="F60" s="16">
+        <v>-8.8947194251406003</v>
+      </c>
+      <c r="G60" s="16">
+        <v>31.201248049922</v>
+      </c>
+      <c r="H60" s="17">
+        <v>22.3065286247814</v>
       </c>
       <c r="I60" s="16">
         <v>79.148225155052401</v>

--- a/AfDD_2022_Annex_Table_Tab17.xlsx
+++ b/AfDD_2022_Annex_Table_Tab17.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab17" sheetId="1" r:id="rId1"/>
@@ -61,15 +61,15 @@
     <t>Changes in inventories (% of 10-year GDP growth), 2009-19</t>
   </si>
   <si>
+    <t>Foreign balance (% of 10-year GDP growth), 2009-19</t>
+  </si>
+  <si>
+    <t>Imports of goods and services (% of 10-year GDP growth), 2009-19</t>
+  </si>
+  <si>
     <t>Exports of goods and services (% of 10-year GDP growth), 2009-19</t>
   </si>
   <si>
-    <t>Imports of goods and services (% of 10-year GDP growth), 2009-19</t>
-  </si>
-  <si>
-    <t>Foreign balance (% of 10-year GDP growth), 2009-19</t>
-  </si>
-  <si>
     <t>AGO</t>
   </si>
   <si>
@@ -544,7 +544,7 @@
     <t>Source: Author's calculations based on IMF World Economic Outlook Database April 2022. Figures are adjusted so consumption, capital formation, changes in inventories and foreign balances as a percentage of GDP add up to 100.</t>
   </si>
   <si>
-    <t>If you would like to explore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022</t>
+    <t>If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022</t>
   </si>
   <si>
     <t>For more information about the indicators presented in this table, go to the List of indicators, descriptions and details.</t>
@@ -1411,13 +1411,13 @@
         <v>-0.1189401228986</v>
       </c>
       <c r="L3" s="13">
-        <v>-30.712534935186</v>
+        <v>99.131282161739193</v>
       </c>
       <c r="M3" s="13">
         <v>-129.84381709693</v>
       </c>
       <c r="N3" s="14">
-        <v>99.131282161739193</v>
+        <v>-30.712534935186</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
@@ -1455,13 +1455,13 @@
         <v>-2.2854951125079999</v>
       </c>
       <c r="L4" s="16">
-        <v>38.920336566801303</v>
+        <v>5.5707956436550203</v>
       </c>
       <c r="M4" s="16">
         <v>33.3495409231463</v>
       </c>
       <c r="N4" s="17">
-        <v>5.5707956436550203</v>
+        <v>38.920336566801303</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
@@ -1543,13 +1543,13 @@
         <v>-28.570464394586999</v>
       </c>
       <c r="L6" s="20">
-        <v>71.527865470614103</v>
+        <v>25.475504248242299</v>
       </c>
       <c r="M6" s="20">
         <v>46.0523612223691</v>
       </c>
       <c r="N6" s="21">
-        <v>25.475504248242299</v>
+        <v>71.527865470614103</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
@@ -1587,13 +1587,13 @@
         <v>0.13129780005887001</v>
       </c>
       <c r="L7" s="20">
-        <v>16.340633604571899</v>
+        <v>-35.162983948555997</v>
       </c>
       <c r="M7" s="20">
         <v>51.503617553128201</v>
       </c>
       <c r="N7" s="21">
-        <v>-35.162983948555997</v>
+        <v>16.340633604571899</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
@@ -1631,13 +1631,13 @@
         <v>2.5790866269034098</v>
       </c>
       <c r="L8" s="20">
-        <v>39.471208309735303</v>
+        <v>-99.066628364438003</v>
       </c>
       <c r="M8" s="20">
         <v>138.537836674174</v>
       </c>
       <c r="N8" s="21">
-        <v>-99.066628364438003</v>
+        <v>39.471208309735303</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
@@ -1675,13 +1675,13 @@
         <v>6.31458506088424</v>
       </c>
       <c r="L9" s="20">
-        <v>23.552019364878301</v>
+        <v>5.9868937035301899</v>
       </c>
       <c r="M9" s="20">
         <v>17.565125661347899</v>
       </c>
       <c r="N9" s="21">
-        <v>5.9868937035301899</v>
+        <v>23.552019364878301</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
@@ -1719,13 +1719,13 @@
         <v>8.2357065073190192</v>
       </c>
       <c r="L10" s="20">
-        <v>38.635795936159802</v>
+        <v>1.3528750411937001</v>
       </c>
       <c r="M10" s="20">
         <v>37.282920894966097</v>
       </c>
       <c r="N10" s="21">
-        <v>1.3528750411937001</v>
+        <v>38.635795936159802</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
@@ -1763,13 +1763,13 @@
         <v>2.5888865310899498</v>
       </c>
       <c r="L11" s="16">
-        <v>43.943411602788501</v>
+        <v>2.55281291811594</v>
       </c>
       <c r="M11" s="16">
         <v>41.390598684672597</v>
       </c>
       <c r="N11" s="17">
-        <v>2.55281291811594</v>
+        <v>43.943411602788501</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1851,13 +1851,13 @@
         <v>5.5777836731348804</v>
       </c>
       <c r="L13" s="27">
-        <v>26.136541683329298</v>
+        <v>14.7591368490368</v>
       </c>
       <c r="M13" s="27">
         <v>11.377404834292401</v>
       </c>
       <c r="N13" s="28">
-        <v>14.7591368490368</v>
+        <v>26.136541683329298</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
@@ -1895,13 +1895,13 @@
         <v>-1.0524974579999999E-14</v>
       </c>
       <c r="L14" s="20">
-        <v>23.4830170221991</v>
+        <v>-2.6060172402470001</v>
       </c>
       <c r="M14" s="20">
         <v>26.089034262446301</v>
       </c>
       <c r="N14" s="21">
-        <v>-2.6060172402470001</v>
+        <v>23.4830170221991</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
@@ -1939,13 +1939,13 @@
         <v>-0.37386938188270002</v>
       </c>
       <c r="L15" s="20">
-        <v>20.365304936469101</v>
+        <v>-4.9622603572401998</v>
       </c>
       <c r="M15" s="20">
         <v>25.327565293709299</v>
       </c>
       <c r="N15" s="21">
-        <v>-4.9622603572401998</v>
+        <v>20.365304936469101</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
@@ -1983,13 +1983,13 @@
         <v>0</v>
       </c>
       <c r="L16" s="20">
-        <v>-34.133787121711997</v>
+        <v>38.7649759976835</v>
       </c>
       <c r="M16" s="20">
         <v>-72.898763119394999</v>
       </c>
       <c r="N16" s="21">
-        <v>38.7649759976835</v>
+        <v>-34.133787121711997</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.35">
@@ -2027,13 +2027,13 @@
         <v>-2.0836329590704001</v>
       </c>
       <c r="L17" s="13">
-        <v>35.6737946954892</v>
+        <v>-2.8747298411576998</v>
       </c>
       <c r="M17" s="13">
         <v>38.548524536647001</v>
       </c>
       <c r="N17" s="14">
-        <v>-2.8747298411576998</v>
+        <v>35.6737946954892</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.35">
@@ -2071,13 +2071,13 @@
         <v>-228.1668965973</v>
       </c>
       <c r="L18" s="13">
-        <v>251.84894563532399</v>
+        <v>990.54610620226799</v>
       </c>
       <c r="M18" s="13">
         <v>-738.69716056694006</v>
       </c>
       <c r="N18" s="14">
-        <v>990.54610620226799</v>
+        <v>251.84894563532399</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.35">
@@ -2115,13 +2115,13 @@
         <v>0</v>
       </c>
       <c r="L19" s="16">
-        <v>24.460555383686099</v>
+        <v>2.1153506340663402</v>
       </c>
       <c r="M19" s="16">
         <v>22.3452047496198</v>
       </c>
       <c r="N19" s="17">
-        <v>2.1153506340663402</v>
+        <v>24.460555383686099</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.35">
@@ -2159,13 +2159,13 @@
         <v>-46.704917331235002</v>
       </c>
       <c r="L20" s="13">
-        <v>130.45430307862199</v>
+        <v>49.259045657597703</v>
       </c>
       <c r="M20" s="13">
         <v>81.195257421024195</v>
       </c>
       <c r="N20" s="14">
-        <v>49.259045657597703</v>
+        <v>130.45430307862199</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.35">
@@ -2203,13 +2203,13 @@
         <v>0</v>
       </c>
       <c r="L21" s="13">
-        <v>16.186923898127301</v>
+        <v>-11.734746440917</v>
       </c>
       <c r="M21" s="13">
         <v>27.921670339044301</v>
       </c>
       <c r="N21" s="14">
-        <v>-11.734746440917</v>
+        <v>16.186923898127301</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2247,13 +2247,13 @@
         <v>0</v>
       </c>
       <c r="L22" s="20">
-        <v>45.3098956100471</v>
+        <v>21.085709145532</v>
       </c>
       <c r="M22" s="20">
         <v>24.2241864645144</v>
       </c>
       <c r="N22" s="21">
-        <v>21.085709145532</v>
+        <v>45.3098956100471</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2291,13 +2291,13 @@
         <v>-19.203353226775</v>
       </c>
       <c r="L23" s="27">
-        <v>46.0812615391173</v>
+        <v>67.861094095469497</v>
       </c>
       <c r="M23" s="27">
         <v>-21.779832556352002</v>
       </c>
       <c r="N23" s="28">
-        <v>67.861094095469497</v>
+        <v>46.0812615391173</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.35">
@@ -2335,13 +2335,13 @@
         <v>-1.0511459417203</v>
       </c>
       <c r="L24" s="20">
-        <v>21.5054097863705</v>
+        <v>-11.807972652153</v>
       </c>
       <c r="M24" s="20">
         <v>33.313382438523199</v>
       </c>
       <c r="N24" s="21">
-        <v>-11.807972652153</v>
+        <v>21.5054097863705</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.35">
@@ -2379,13 +2379,13 @@
         <v>-4.0632799785431999</v>
       </c>
       <c r="L25" s="20">
-        <v>135.76635152873601</v>
+        <v>13.504084646944699</v>
       </c>
       <c r="M25" s="20">
         <v>122.26226688179101</v>
       </c>
       <c r="N25" s="21">
-        <v>13.504084646944699</v>
+        <v>135.76635152873601</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.35">
@@ -2423,13 +2423,13 @@
         <v>0</v>
       </c>
       <c r="L26" s="20">
-        <v>81.7613292677093</v>
+        <v>61.8414221310587</v>
       </c>
       <c r="M26" s="20">
         <v>19.919907136650501</v>
       </c>
       <c r="N26" s="21">
-        <v>61.8414221310587</v>
+        <v>81.7613292677093</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.35">
@@ -2467,13 +2467,13 @@
         <v>0</v>
       </c>
       <c r="L27" s="20">
-        <v>5.76453689990905</v>
+        <v>-2.1101156700654</v>
       </c>
       <c r="M27" s="20">
         <v>7.8746525699744598</v>
       </c>
       <c r="N27" s="21">
-        <v>-2.1101156700654</v>
+        <v>5.76453689990905</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.35">
@@ -2511,13 +2511,13 @@
         <v>-0.16589634964530001</v>
       </c>
       <c r="L28" s="20">
-        <v>1.8234531440961701</v>
+        <v>-8.4165806897819007</v>
       </c>
       <c r="M28" s="20">
         <v>10.240033833878099</v>
       </c>
       <c r="N28" s="21">
-        <v>-8.4165806897819007</v>
+        <v>1.8234531440961701</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.35">
@@ -2555,13 +2555,13 @@
         <v>5.5119124043494097</v>
       </c>
       <c r="L29" s="20">
-        <v>52.321598359313803</v>
+        <v>41.478845750195703</v>
       </c>
       <c r="M29" s="20">
         <v>10.842752609118399</v>
       </c>
       <c r="N29" s="21">
-        <v>41.478845750195703</v>
+        <v>52.321598359313803</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.35">
@@ -2599,13 +2599,13 @@
         <v>4.52976555370598</v>
       </c>
       <c r="L30" s="20">
-        <v>24.999441853913101</v>
+        <v>-31.730865232340001</v>
       </c>
       <c r="M30" s="20">
         <v>56.730307086252601</v>
       </c>
       <c r="N30" s="21">
-        <v>-31.730865232340001</v>
+        <v>24.999441853913101</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.35">
@@ -2643,13 +2643,13 @@
         <v>-8.1510119357996995</v>
       </c>
       <c r="L31" s="20">
-        <v>33.287083406552199</v>
+        <v>-12.540412262679</v>
       </c>
       <c r="M31" s="20">
         <v>45.827495669231503</v>
       </c>
       <c r="N31" s="21">
-        <v>-12.540412262679</v>
+        <v>33.287083406552199</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.35">
@@ -2687,13 +2687,13 @@
         <v>0</v>
       </c>
       <c r="L32" s="20">
-        <v>75.255478163911306</v>
+        <v>-14.072293026582001</v>
       </c>
       <c r="M32" s="20">
         <v>89.3277711904923</v>
       </c>
       <c r="N32" s="21">
-        <v>-14.072293026582001</v>
+        <v>75.255478163911306</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.35">
@@ -2863,13 +2863,13 @@
         <v>-9.3191073701937004</v>
       </c>
       <c r="L36" s="20">
-        <v>14.208716222156401</v>
+        <v>7.2604754966295904</v>
       </c>
       <c r="M36" s="20">
         <v>6.9482407255268601</v>
       </c>
       <c r="N36" s="21">
-        <v>7.2604754966295904</v>
+        <v>14.208716222156401</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2907,13 +2907,13 @@
         <v>0.94372113135330005</v>
       </c>
       <c r="L37" s="20">
-        <v>17.518766388067899</v>
+        <v>-8.4426353853636993</v>
       </c>
       <c r="M37" s="20">
         <v>25.9614017734316</v>
       </c>
       <c r="N37" s="21">
-        <v>-8.4426353853636993</v>
+        <v>17.518766388067899</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2951,13 +2951,13 @@
         <v>-1.4593216867601</v>
       </c>
       <c r="L38" s="27">
-        <v>13.139230572565999</v>
+        <v>-1.5455159339938001</v>
       </c>
       <c r="M38" s="27">
         <v>14.684746506559801</v>
       </c>
       <c r="N38" s="28">
-        <v>-1.5455159339938001</v>
+        <v>13.139230572565999</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.35">
@@ -2995,13 +2995,13 @@
         <v>2.85236617314375</v>
       </c>
       <c r="L39" s="13">
-        <v>-19.059141237134</v>
+        <v>-37.349340951574</v>
       </c>
       <c r="M39" s="13">
         <v>18.29019971444</v>
       </c>
       <c r="N39" s="14">
-        <v>-37.349340951574</v>
+        <v>-19.059141237134</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.35">
@@ -3039,13 +3039,13 @@
         <v>-0.51909694645339999</v>
       </c>
       <c r="L40" s="20">
-        <v>5.4964471808974498</v>
+        <v>-12.828276030493999</v>
       </c>
       <c r="M40" s="20">
         <v>18.3247232113915</v>
       </c>
       <c r="N40" s="21">
-        <v>-12.828276030493999</v>
+        <v>5.4964471808974498</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.35">
@@ -3127,13 +3127,13 @@
         <v>15.309874422363199</v>
       </c>
       <c r="L42" s="13">
-        <v>42.906990448065699</v>
+        <v>-17.149398460966001</v>
       </c>
       <c r="M42" s="13">
         <v>60.056388909031</v>
       </c>
       <c r="N42" s="14">
-        <v>-17.149398460966001</v>
+        <v>42.906990448065699</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.35">
@@ -3171,13 +3171,13 @@
         <v>6.5384669737582701</v>
       </c>
       <c r="L43" s="20">
-        <v>57.453703456696601</v>
+        <v>-0.21827329696770001</v>
       </c>
       <c r="M43" s="20">
         <v>57.671976753664303</v>
       </c>
       <c r="N43" s="21">
-        <v>-0.21827329696770001</v>
+        <v>57.453703456696601</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3215,13 +3215,13 @@
         <v>0.67052786813360998</v>
       </c>
       <c r="L44" s="20">
-        <v>59.650685265895</v>
+        <v>-49.58720220435</v>
       </c>
       <c r="M44" s="20">
         <v>109.237887470245</v>
       </c>
       <c r="N44" s="21">
-        <v>-49.58720220435</v>
+        <v>59.650685265895</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3259,13 +3259,13 @@
         <v>1.4612167296839</v>
       </c>
       <c r="L45" s="27">
-        <v>10.466450219498901</v>
+        <v>-19.282948018142001</v>
       </c>
       <c r="M45" s="27">
         <v>29.749398237641199</v>
       </c>
       <c r="N45" s="28">
-        <v>-19.282948018142001</v>
+        <v>10.466450219498901</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.35">
@@ -3303,13 +3303,13 @@
         <v>4.0983676331642203</v>
       </c>
       <c r="L46" s="20">
-        <v>41.814450461080497</v>
+        <v>0.23892503192337</v>
       </c>
       <c r="M46" s="20">
         <v>41.575525429157103</v>
       </c>
       <c r="N46" s="21">
-        <v>0.23892503192337</v>
+        <v>41.814450461080497</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.35">
@@ -3347,13 +3347,13 @@
         <v>1.1885482937515499</v>
       </c>
       <c r="L47" s="20">
-        <v>49.082191506237699</v>
+        <v>4.0594780202992098</v>
       </c>
       <c r="M47" s="20">
         <v>45.022713485938503</v>
       </c>
       <c r="N47" s="21">
-        <v>4.0594780202992098</v>
+        <v>49.082191506237699</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.35">
@@ -3391,13 +3391,13 @@
         <v>-16.999819455638001</v>
       </c>
       <c r="L48" s="20">
-        <v>106.960696178977</v>
+        <v>35.655225943357898</v>
       </c>
       <c r="M48" s="20">
         <v>71.305470235619197</v>
       </c>
       <c r="N48" s="21">
-        <v>35.655225943357898</v>
+        <v>106.960696178977</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.35">
@@ -3435,13 +3435,13 @@
         <v>-0.35592465542160001</v>
       </c>
       <c r="L49" s="20">
-        <v>6.53014344405904</v>
+        <v>-6.6222899723983</v>
       </c>
       <c r="M49" s="20">
         <v>13.1524334164574</v>
       </c>
       <c r="N49" s="21">
-        <v>-6.6222899723983</v>
+        <v>6.53014344405904</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.35">
@@ -3479,13 +3479,13 @@
         <v>0</v>
       </c>
       <c r="L50" s="20">
-        <v>35.295240803225703</v>
+        <v>-45.047566496560997</v>
       </c>
       <c r="M50" s="20">
         <v>80.342807299786202</v>
       </c>
       <c r="N50" s="21">
-        <v>-45.047566496560997</v>
+        <v>35.295240803225703</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.35">
@@ -3523,13 +3523,13 @@
         <v>1.6768238427851501</v>
       </c>
       <c r="L51" s="16">
-        <v>54.695171804851803</v>
+        <v>6.8242922970779496</v>
       </c>
       <c r="M51" s="16">
         <v>47.870879507773999</v>
       </c>
       <c r="N51" s="17">
-        <v>6.8242922970779496</v>
+        <v>54.695171804851803</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.35">
@@ -3567,13 +3567,13 @@
         <v>0</v>
       </c>
       <c r="L52" s="20">
-        <v>43.536426523346599</v>
+        <v>-13.946601042939999</v>
       </c>
       <c r="M52" s="20">
         <v>57.483027566286196</v>
       </c>
       <c r="N52" s="21">
-        <v>-13.946601042939999</v>
+        <v>43.536426523346599</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.35">
@@ -3611,13 +3611,13 @@
         <v>-2.198358278887</v>
       </c>
       <c r="L53" s="20">
-        <v>44.436334958874099</v>
+        <v>3.6184094859518301</v>
       </c>
       <c r="M53" s="20">
         <v>40.817925472922397</v>
       </c>
       <c r="N53" s="21">
-        <v>3.6184094859518301</v>
+        <v>44.436334958874099</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.35">
@@ -3699,13 +3699,13 @@
         <v>3.71759140822707</v>
       </c>
       <c r="L55" s="20">
-        <v>33.767307177719601</v>
+        <v>-17.227062490594999</v>
       </c>
       <c r="M55" s="20">
         <v>50.994369668314299</v>
       </c>
       <c r="N55" s="21">
-        <v>-17.227062490594999</v>
+        <v>33.767307177719601</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.35">
@@ -3743,13 +3743,13 @@
         <v>0.59527863927581004</v>
       </c>
       <c r="L56" s="20">
-        <v>5.4456569261345704</v>
+        <v>-10.657658484157</v>
       </c>
       <c r="M56" s="20">
         <v>16.103315410291199</v>
       </c>
       <c r="N56" s="21">
-        <v>-10.657658484157</v>
+        <v>5.4456569261345704</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.35">
@@ -3787,13 +3787,13 @@
         <v>2.5632435892629202</v>
       </c>
       <c r="L57" s="13">
-        <v>6.5778523707923604</v>
+        <v>-29.065617732513999</v>
       </c>
       <c r="M57" s="13">
         <v>35.643470103306697</v>
       </c>
       <c r="N57" s="14">
-        <v>-29.065617732513999</v>
+        <v>6.5778523707923604</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.35">
@@ -3831,13 +3831,13 @@
         <v>5.1639474896708801</v>
       </c>
       <c r="L58" s="20">
-        <v>34.197564124221898</v>
+        <v>-15.646917364416</v>
       </c>
       <c r="M58" s="20">
         <v>49.844481488638102</v>
       </c>
       <c r="N58" s="21">
-        <v>-15.646917364416</v>
+        <v>34.197564124221898</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.35">
@@ -3875,13 +3875,13 @@
         <v>0</v>
       </c>
       <c r="L59" s="20">
-        <v>45.798927012677098</v>
+        <v>-24.168257216653</v>
       </c>
       <c r="M59" s="20">
         <v>69.967184229330798</v>
       </c>
       <c r="N59" s="21">
-        <v>-24.168257216653</v>
+        <v>45.798927012677098</v>
       </c>
     </row>
     <row r="60" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3919,13 +3919,13 @@
         <v>-0.61986674154370003</v>
       </c>
       <c r="L60" s="16">
-        <v>15.8668283742653</v>
+        <v>-7.0164310923753996</v>
       </c>
       <c r="M60" s="16">
         <v>22.883259466640801</v>
       </c>
       <c r="N60" s="17">
-        <v>-7.0164310923753996</v>
+        <v>15.8668283742653</v>
       </c>
     </row>
     <row r="61" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3963,13 +3963,13 @@
         <v>2.1408081384261499</v>
       </c>
       <c r="L61" s="27">
-        <v>16.847965205851601</v>
+        <v>-20.005119653721</v>
       </c>
       <c r="M61" s="27">
         <v>36.853084859572597</v>
       </c>
       <c r="N61" s="28">
-        <v>-20.005119653721</v>
+        <v>16.847965205851601</v>
       </c>
     </row>
     <row r="62" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4007,13 +4007,13 @@
         <v>1.00059116150343</v>
       </c>
       <c r="L62" s="33">
-        <v>17.441615219418399</v>
+        <v>-5.8277281869894004</v>
       </c>
       <c r="M62" s="33">
         <v>23.269343406407799</v>
       </c>
       <c r="N62" s="34">
-        <v>-5.8277281869894004</v>
+        <v>17.441615219418399</v>
       </c>
     </row>
     <row r="63" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4051,13 +4051,13 @@
         <v>5.5166433526377396</v>
       </c>
       <c r="L63" s="33">
-        <v>46.861524075181798</v>
+        <v>2.8728888641949499</v>
       </c>
       <c r="M63" s="33">
         <v>43.988604550339602</v>
       </c>
       <c r="N63" s="34">
-        <v>2.8728888641949499</v>
+        <v>46.861524075181798</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.35">
@@ -4095,13 +4095,13 @@
         <v>1.31660690327759</v>
       </c>
       <c r="L64" s="37">
-        <v>39.630088406922198</v>
+        <v>-3.8544865297165001</v>
       </c>
       <c r="M64" s="37">
         <v>43.484574936638701</v>
       </c>
       <c r="N64" s="38">
-        <v>-3.8544865297165001</v>
+        <v>39.630088406922198</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.35">
@@ -4139,13 +4139,13 @@
         <v>2.4044997947606399</v>
       </c>
       <c r="L65" s="40">
-        <v>16.4677269290172</v>
+        <v>-4.2007271623284002</v>
       </c>
       <c r="M65" s="40">
         <v>20.668454091345701</v>
       </c>
       <c r="N65" s="41">
-        <v>-4.2007271623284002</v>
+        <v>16.4677269290172</v>
       </c>
     </row>
     <row r="66" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4183,13 +4183,13 @@
         <v>5.2959048395918096</v>
       </c>
       <c r="L66" s="43">
-        <v>45.423518786510201</v>
+        <v>2.4476144897687999</v>
       </c>
       <c r="M66" s="43">
         <v>42.975875134745102</v>
       </c>
       <c r="N66" s="44">
-        <v>2.4476144897687999</v>
+        <v>45.423518786510201</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.35">
@@ -4227,13 +4227,13 @@
         <v>-8.2886466999699995E-2</v>
       </c>
       <c r="L67" s="40">
-        <v>13.229158624971401</v>
+        <v>-11.234628194960001</v>
       </c>
       <c r="M67" s="40">
         <v>24.463786819931901</v>
       </c>
       <c r="N67" s="41">
-        <v>-11.234628194960001</v>
+        <v>13.229158624971401</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.35">
@@ -4271,13 +4271,13 @@
         <v>1.5662538089979201</v>
       </c>
       <c r="L68" s="40">
-        <v>18.447118326819702</v>
+        <v>-16.559892675981001</v>
       </c>
       <c r="M68" s="40">
         <v>35.007011002800901</v>
       </c>
       <c r="N68" s="41">
-        <v>-16.559892675981001</v>
+        <v>18.447118326819702</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.35">
@@ -4315,13 +4315,13 @@
         <v>-3.0432351743571</v>
       </c>
       <c r="L69" s="40">
-        <v>10.5155467980819</v>
+        <v>-3.9755950542445002</v>
       </c>
       <c r="M69" s="40">
         <v>14.4911418523264</v>
       </c>
       <c r="N69" s="41">
-        <v>-3.9755950542445002</v>
+        <v>10.5155467980819</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.35">
@@ -4359,13 +4359,13 @@
         <v>-11.280737896828001</v>
       </c>
       <c r="L70" s="40">
-        <v>15.822210744734001</v>
+        <v>75.802458631423903</v>
       </c>
       <c r="M70" s="40">
         <v>-59.980247886690002</v>
       </c>
       <c r="N70" s="41">
-        <v>75.802458631423903</v>
+        <v>15.822210744734001</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.35">
@@ -4403,13 +4403,13 @@
         <v>2.1408081384261499</v>
       </c>
       <c r="L71" s="40">
-        <v>16.847965205851601</v>
+        <v>-20.005119653721</v>
       </c>
       <c r="M71" s="40">
         <v>36.853084859572597</v>
       </c>
       <c r="N71" s="41">
-        <v>-20.005119653721</v>
+        <v>16.847965205851601</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.35">
@@ -4447,13 +4447,13 @@
         <v>5.9510884931339998E-2</v>
       </c>
       <c r="L72" s="40">
-        <v>8.1677434715344397</v>
+        <v>-4.8508171350904004</v>
       </c>
       <c r="M72" s="40">
         <v>13.0185606066249</v>
       </c>
       <c r="N72" s="41">
-        <v>-4.8508171350904004</v>
+        <v>8.1677434715344397</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.35">
@@ -4491,13 +4491,13 @@
         <v>3.7034045334094601</v>
       </c>
       <c r="L73" s="40">
-        <v>25.648082963996799</v>
+        <v>13.0131741760901</v>
       </c>
       <c r="M73" s="40">
         <v>12.6349087879066</v>
       </c>
       <c r="N73" s="41">
-        <v>13.0131741760901</v>
+        <v>25.648082963996799</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.35">
@@ -4535,13 +4535,13 @@
         <v>3.96738817746771</v>
       </c>
       <c r="L74" s="40">
-        <v>16.7562011114067</v>
+        <v>-27.451610808881</v>
       </c>
       <c r="M74" s="40">
         <v>44.207811920288101</v>
       </c>
       <c r="N74" s="41">
-        <v>-27.451610808881</v>
+        <v>16.7562011114067</v>
       </c>
     </row>
     <row r="75" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4579,13 +4579,13 @@
         <v>-4.1165167655710997</v>
       </c>
       <c r="L75" s="43">
-        <v>-3.7049700877868998</v>
+        <v>65.160615292996297</v>
       </c>
       <c r="M75" s="43">
         <v>-68.865585380783997</v>
       </c>
       <c r="N75" s="44">
-        <v>65.160615292996297</v>
+        <v>-3.7049700877868998</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.35">
@@ -4623,13 +4623,13 @@
         <v>3.97127259450694</v>
       </c>
       <c r="L76" s="40">
-        <v>35.8260902455254</v>
+        <v>-2.8188829306162</v>
       </c>
       <c r="M76" s="40">
         <v>38.644973176141598</v>
       </c>
       <c r="N76" s="41">
-        <v>-2.8188829306162</v>
+        <v>35.8260902455254</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.35">
@@ -4667,13 +4667,13 @@
         <v>1.9761371987435301</v>
       </c>
       <c r="L77" s="40">
-        <v>23.725458646003698</v>
+        <v>-6.9532836395034003</v>
       </c>
       <c r="M77" s="40">
         <v>30.678742285507099</v>
       </c>
       <c r="N77" s="41">
-        <v>-6.9532836395034003</v>
+        <v>23.725458646003698</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.35">
@@ -4711,13 +4711,13 @@
         <v>11.390074767926199</v>
       </c>
       <c r="L78" s="40">
-        <v>144.89928288416999</v>
+        <v>29.762435405516602</v>
       </c>
       <c r="M78" s="40">
         <v>115.13674813755701</v>
       </c>
       <c r="N78" s="41">
-        <v>29.762435405516602</v>
+        <v>144.89928288416999</v>
       </c>
     </row>
     <row r="79" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4755,13 +4755,13 @@
         <v>7.21615402219249</v>
       </c>
       <c r="L79" s="43">
-        <v>68.099794027667997</v>
+        <v>8.4986882125852699</v>
       </c>
       <c r="M79" s="43">
         <v>59.601046047843397</v>
       </c>
       <c r="N79" s="44">
-        <v>8.4986882125852699</v>
+        <v>68.099794027667997</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.35">
@@ -4799,13 +4799,13 @@
         <v>-0.80708926365160005</v>
       </c>
       <c r="L80" s="40">
-        <v>0.93784659097791001</v>
+        <v>-3.6331140630553</v>
       </c>
       <c r="M80" s="40">
         <v>4.57096065403314</v>
       </c>
       <c r="N80" s="41">
-        <v>-3.6331140630553</v>
+        <v>0.93784659097791001</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.35">
@@ -4843,13 +4843,13 @@
         <v>24.214902509402901</v>
       </c>
       <c r="L81" s="40">
-        <v>38.511304610596298</v>
+        <v>0.35433328772180001</v>
       </c>
       <c r="M81" s="40">
         <v>38.156971322874497</v>
       </c>
       <c r="N81" s="41">
-        <v>0.35433328772180001</v>
+        <v>38.511304610596298</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.35">
@@ -4887,13 +4887,13 @@
         <v>1.7944636300110399</v>
       </c>
       <c r="L82" s="40">
-        <v>24.689515544286401</v>
+        <v>-6.7915289272889003</v>
       </c>
       <c r="M82" s="40">
         <v>31.481044471575299</v>
       </c>
       <c r="N82" s="41">
-        <v>-6.7915289272889003</v>
+        <v>24.689515544286401</v>
       </c>
     </row>
     <row r="83" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4931,13 +4931,13 @@
         <v>3.9784532758835001</v>
       </c>
       <c r="L83" s="43">
-        <v>47.548444959712299</v>
+        <v>3.0800748467511601</v>
       </c>
       <c r="M83" s="43">
         <v>44.468336930052097</v>
       </c>
       <c r="N83" s="44">
-        <v>3.0800748467511601</v>
+        <v>47.548444959712299</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.35">
@@ -4975,13 +4975,13 @@
         <v>0.45858529463817999</v>
       </c>
       <c r="L84" s="40">
-        <v>22.794638639044599</v>
+        <v>-7.4775729044601</v>
       </c>
       <c r="M84" s="40">
         <v>30.272211543504799</v>
       </c>
       <c r="N84" s="41">
-        <v>-7.4775729044601</v>
+        <v>22.794638639044599</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.35">
@@ -5019,13 +5019,13 @@
         <v>0</v>
       </c>
       <c r="L85" s="40">
-        <v>24.2893561772831</v>
+        <v>-13.052823219799</v>
       </c>
       <c r="M85" s="40">
         <v>37.342179397081999</v>
       </c>
       <c r="N85" s="41">
-        <v>-13.052823219799</v>
+        <v>24.2893561772831</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.35">
@@ -5063,13 +5063,13 @@
         <v>2.418853549246E-2</v>
       </c>
       <c r="L86" s="40">
-        <v>11.5486552837438</v>
+        <v>-7.1044132793405002</v>
       </c>
       <c r="M86" s="40">
         <v>18.6530685630843</v>
       </c>
       <c r="N86" s="41">
-        <v>-7.1044132793405002</v>
+        <v>11.5486552837438</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.35">
@@ -5107,13 +5107,13 @@
         <v>4.3462496382579996</v>
       </c>
       <c r="L87" s="40">
-        <v>17.305579433220601</v>
+        <v>-13.210357102687</v>
       </c>
       <c r="M87" s="40">
         <v>30.515936535907699</v>
       </c>
       <c r="N87" s="41">
-        <v>-13.210357102687</v>
+        <v>17.305579433220601</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.35">
@@ -5151,13 +5151,13 @@
         <v>5.9262036599640604</v>
       </c>
       <c r="L88" s="40">
-        <v>39.499079291277198</v>
+        <v>1.4496771277091201</v>
       </c>
       <c r="M88" s="40">
         <v>38.049402163567997</v>
       </c>
       <c r="N88" s="41">
-        <v>1.4496771277091201</v>
+        <v>39.499079291277198</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.35">
@@ -5195,13 +5195,13 @@
         <v>2.5148505985848701</v>
       </c>
       <c r="L89" s="40">
-        <v>28.256367173980699</v>
+        <v>0.53274609878432999</v>
       </c>
       <c r="M89" s="40">
         <v>27.723621075196402</v>
       </c>
       <c r="N89" s="41">
-        <v>0.53274609878432999</v>
+        <v>28.256367173980699</v>
       </c>
     </row>
     <row r="90" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5239,13 +5239,13 @@
         <v>8.0205436948059905</v>
       </c>
       <c r="L90" s="43">
-        <v>69.295387183390403</v>
+        <v>9.5725187914080703</v>
       </c>
       <c r="M90" s="43">
         <v>59.7228063957754</v>
       </c>
       <c r="N90" s="44">
-        <v>9.5725187914080703</v>
+        <v>69.295387183390403</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.35">
@@ -5283,13 +5283,13 @@
         <v>-0.20723605323819999</v>
       </c>
       <c r="L91" s="40">
-        <v>16.580785549055999</v>
+        <v>10.8673276052952</v>
       </c>
       <c r="M91" s="40">
         <v>5.71345794376073</v>
       </c>
       <c r="N91" s="41">
-        <v>10.8673276052952</v>
+        <v>16.580785549055999</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.35">
@@ -5327,13 +5327,13 @@
         <v>0.34412527155064998</v>
       </c>
       <c r="L92" s="40">
-        <v>22.492647251452599</v>
+        <v>-11.746700253824001</v>
       </c>
       <c r="M92" s="40">
         <v>34.239347505276299</v>
       </c>
       <c r="N92" s="41">
-        <v>-11.746700253824001</v>
+        <v>22.492647251452599</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.35">
@@ -5371,13 +5371,13 @@
         <v>1.2049613828569501</v>
       </c>
       <c r="L93" s="40">
-        <v>37.825182866858199</v>
+        <v>-18.82151641071</v>
       </c>
       <c r="M93" s="40">
         <v>56.646699277568501</v>
       </c>
       <c r="N93" s="41">
-        <v>-18.82151641071</v>
+        <v>37.825182866858199</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.35">
@@ -5415,13 +5415,13 @@
         <v>4.5166538315631701</v>
       </c>
       <c r="L94" s="40">
-        <v>111.82956261129701</v>
+        <v>16.4549603412467</v>
       </c>
       <c r="M94" s="40">
         <v>95.374602270050602</v>
       </c>
       <c r="N94" s="41">
-        <v>16.4549603412467</v>
+        <v>111.82956261129701</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.35">
@@ -5459,13 +5459,13 @@
         <v>-4.0436155683599997E-2</v>
       </c>
       <c r="L95" s="40">
-        <v>20.877375387916501</v>
+        <v>-4.5667391222190004</v>
       </c>
       <c r="M95" s="40">
         <v>25.4441145101354</v>
       </c>
       <c r="N95" s="41">
-        <v>-4.5667391222190004</v>
+        <v>20.877375387916501</v>
       </c>
     </row>
     <row r="96" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5503,13 +5503,13 @@
         <v>4.2082548987032604</v>
       </c>
       <c r="L96" s="43">
-        <v>27.256670462722301</v>
+        <v>-16.700002588562</v>
       </c>
       <c r="M96" s="43">
         <v>43.956673051284199</v>
       </c>
       <c r="N96" s="44">
-        <v>-16.700002588562</v>
+        <v>27.256670462722301</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.35">
@@ -5547,13 +5547,13 @@
         <v>-1.3829925623351</v>
       </c>
       <c r="L97" s="40">
-        <v>13.1577509408009</v>
+        <v>1.97594966266359</v>
       </c>
       <c r="M97" s="40">
         <v>11.1818012781373</v>
       </c>
       <c r="N97" s="41">
-        <v>1.97594966266359</v>
+        <v>13.1577509408009</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.35">
@@ -5591,13 +5591,13 @@
         <v>27.506170938623999</v>
       </c>
       <c r="L98" s="40">
-        <v>19.435432369909201</v>
+        <v>-25.475622303733001</v>
       </c>
       <c r="M98" s="40">
         <v>44.911054673642298</v>
       </c>
       <c r="N98" s="41">
-        <v>-25.475622303733001</v>
+        <v>19.435432369909201</v>
       </c>
     </row>
     <row r="99" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5635,13 +5635,13 @@
         <v>-14.377820942704</v>
       </c>
       <c r="L99" s="43">
-        <v>39.493406032360902</v>
+        <v>45.942158038045598</v>
       </c>
       <c r="M99" s="43">
         <v>-6.4487520056843</v>
       </c>
       <c r="N99" s="44">
-        <v>45.942158038045598</v>
+        <v>39.493406032360902</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.35">
@@ -5722,7 +5722,7 @@
     <hyperlink ref="B111" r:id="rId2" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators"/>
     <hyperlink ref="B114" r:id="rId3"/>
     <hyperlink ref="B113" r:id="rId4"/>
-    <hyperlink ref="B108" r:id="rId5"/>
+    <hyperlink ref="B108" r:id="rId5" display="If you would like to explore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="95" fitToHeight="0" orientation="portrait" r:id="rId6"/>
